--- a/astar_swarm.xlsx
+++ b/astar_swarm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,22 +472,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.72438</v>
+        <v>0.91826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09558999999999999</v>
+        <v>0.10971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00419</v>
+        <v>0.00544</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06965</v>
+        <v>0.08159</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,22 +497,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0.82645</v>
+        <v>0.93438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.955</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08883000000000001</v>
+        <v>0.11852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00317</v>
+        <v>0.00564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06312</v>
+        <v>0.08914</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -522,22 +522,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.86215</v>
+        <v>0.9457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.958</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16459</v>
+        <v>0.13654</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0052</v>
+        <v>0.00638</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11348</v>
+        <v>0.10144</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -547,22 +547,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.90992</v>
+        <v>0.95041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.96167</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18041</v>
+        <v>0.15709</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00502</v>
+        <v>0.00694</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12113</v>
+        <v>0.11706</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -572,22 +572,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.92322</v>
+        <v>0.95306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.97143</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25427</v>
+        <v>0.16967</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00611</v>
+        <v>0.00714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.16413</v>
+        <v>0.12632</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.91967</v>
+        <v>0.96157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.95875</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2368</v>
+        <v>0.17357</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00568</v>
+        <v>0.00704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.14355</v>
+        <v>0.12587</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -622,22 +622,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0.94355</v>
+        <v>0.9628100000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.97778</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44949</v>
+        <v>0.20182</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00787</v>
+        <v>0.0078</v>
       </c>
       <c r="F8" t="n">
-        <v>0.26071</v>
+        <v>0.14774</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -647,22 +647,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0.95074</v>
+        <v>0.97182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.964</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.42024</v>
+        <v>0.22318</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00704</v>
+        <v>0.00864</v>
       </c>
       <c r="F9" t="n">
-        <v>0.25087</v>
+        <v>0.16208</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -672,22 +672,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9562</v>
+        <v>0.96587</v>
       </c>
       <c r="C10" t="n">
-        <v>0.95455</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.471</v>
+        <v>0.22992</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.00839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2706</v>
+        <v>0.16572</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -697,22 +697,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9605</v>
+        <v>0.97785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.94417</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.51497</v>
+        <v>0.24935</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0081</v>
+        <v>0.00885</v>
       </c>
       <c r="F11" t="n">
-        <v>0.31979</v>
+        <v>0.1789</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -722,22 +722,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9681</v>
+        <v>0.9775199999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.96615</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.55001</v>
+        <v>0.27112</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008229999999999999</v>
+        <v>0.00937</v>
       </c>
       <c r="F12" t="n">
-        <v>0.31697</v>
+        <v>0.19226</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0.96306</v>
+        <v>0.9783500000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.95786</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6077399999999999</v>
+        <v>0.30361</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0086</v>
+        <v>0.01002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.34036</v>
+        <v>0.21598</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -772,22 +772,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0.97165</v>
+        <v>0.98256</v>
       </c>
       <c r="C14" t="n">
-        <v>0.97467</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.76712</v>
+        <v>0.34129</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009209999999999999</v>
+        <v>0.01101</v>
       </c>
       <c r="F14" t="n">
-        <v>0.41647</v>
+        <v>0.24054</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9724</v>
+        <v>0.97876</v>
       </c>
       <c r="C15" t="n">
-        <v>0.94625</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7239100000000001</v>
+        <v>0.3559</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00971</v>
+        <v>0.01126</v>
       </c>
       <c r="F15" t="n">
-        <v>0.42809</v>
+        <v>0.24796</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -822,22 +822,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>0.98025</v>
+        <v>0.98339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.96529</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.83989</v>
+        <v>0.35175</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01021</v>
+        <v>0.01105</v>
       </c>
       <c r="F16" t="n">
-        <v>0.45339</v>
+        <v>0.24476</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -847,22 +847,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>0.97917</v>
+        <v>0.98355</v>
       </c>
       <c r="C17" t="n">
-        <v>0.97611</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.00928</v>
+        <v>0.37102</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01</v>
+        <v>0.01126</v>
       </c>
       <c r="F17" t="n">
-        <v>0.52613</v>
+        <v>0.25433</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -872,197 +872,197 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.98</v>
+        <v>0.91752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9747400000000001</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0875</v>
+        <v>0.09853000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01099</v>
+        <v>0.00493</v>
       </c>
       <c r="F18" t="n">
-        <v>0.58502</v>
+        <v>0.07452</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>0.98364</v>
+        <v>0.94331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9735</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.11178</v>
+        <v>0.11393</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01126</v>
+        <v>0.00549</v>
       </c>
       <c r="F19" t="n">
-        <v>0.59575</v>
+        <v>0.08667</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>0.98645</v>
+        <v>0.94521</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9581</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1.17551</v>
+        <v>0.13308</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01139</v>
+        <v>0.00594</v>
       </c>
       <c r="F20" t="n">
-        <v>0.66174</v>
+        <v>0.10092</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9895</v>
+        <v>0.95248</v>
       </c>
       <c r="C21" t="n">
-        <v>0.96091</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1.24944</v>
+        <v>0.14551</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01231</v>
+        <v>0.00646</v>
       </c>
       <c r="F21" t="n">
-        <v>0.68003</v>
+        <v>0.10881</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>0.98785</v>
+        <v>0.95645</v>
       </c>
       <c r="C22" t="n">
-        <v>0.96174</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.57142</v>
+        <v>0.16584</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01228</v>
+        <v>0.00686</v>
       </c>
       <c r="F22" t="n">
-        <v>0.86815</v>
+        <v>0.12385</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>0.98752</v>
+        <v>0.95669</v>
       </c>
       <c r="C23" t="n">
-        <v>0.94542</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1.46759</v>
+        <v>0.16958</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01304</v>
+        <v>0.00711</v>
       </c>
       <c r="F23" t="n">
-        <v>0.85523</v>
+        <v>0.12469</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9888400000000001</v>
+        <v>0.95934</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9664</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.72765</v>
+        <v>0.18841</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01341</v>
+        <v>0.00758</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9032</v>
+        <v>0.13782</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>0.72917</v>
+        <v>0.9700800000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0728</v>
+        <v>0.20966</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00324</v>
+        <v>0.008019999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05651</v>
+        <v>0.15107</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B26" t="n">
-        <v>0.82603</v>
+        <v>0.97074</v>
       </c>
       <c r="C26" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.12424</v>
+        <v>0.22504</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00401</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09167</v>
+        <v>0.16089</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1097,22 +1097,22 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B27" t="n">
-        <v>0.87107</v>
+        <v>0.97083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.958</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.15155</v>
+        <v>0.24366</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00471</v>
+        <v>0.00873</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09789</v>
+        <v>0.17209</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1122,22 +1122,22 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B28" t="n">
-        <v>0.89785</v>
+        <v>0.9734699999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.19875</v>
+        <v>0.26994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00519</v>
+        <v>0.00942</v>
       </c>
       <c r="F28" t="n">
-        <v>0.13168</v>
+        <v>0.19171</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1147,22 +1147,22 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B29" t="n">
-        <v>0.91215</v>
+        <v>0.97554</v>
       </c>
       <c r="C29" t="n">
-        <v>0.94857</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24332</v>
+        <v>0.29356</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00625</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1538</v>
+        <v>0.20693</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1172,22 +1172,22 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B30" t="n">
-        <v>0.93083</v>
+        <v>0.9795</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9775</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25576</v>
+        <v>0.32184</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00599</v>
+        <v>0.01042</v>
       </c>
       <c r="F30" t="n">
-        <v>0.15347</v>
+        <v>0.2233</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1197,22 +1197,22 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B31" t="n">
-        <v>0.93992</v>
+        <v>0.9783500000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.95889</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3675</v>
+        <v>0.34452</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00704</v>
+        <v>0.01064</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2257</v>
+        <v>0.23971</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1222,22 +1222,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9448800000000001</v>
+        <v>0.98306</v>
       </c>
       <c r="C32" t="n">
-        <v>0.966</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.35187</v>
+        <v>0.33839</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00709</v>
+        <v>0.01085</v>
       </c>
       <c r="F32" t="n">
-        <v>0.21359</v>
+        <v>0.2355</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1247,22 +1247,22 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B33" t="n">
-        <v>0.95579</v>
+        <v>0.98521</v>
       </c>
       <c r="C33" t="n">
-        <v>0.95818</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.43677</v>
+        <v>0.37323</v>
       </c>
       <c r="E33" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.01138</v>
       </c>
       <c r="F33" t="n">
-        <v>0.26839</v>
+        <v>0.25729</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1272,370 +1272,372 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>0.96512</v>
+        <v>0.90172</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9575</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.51566</v>
+        <v>0.1384</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00787</v>
+        <v>0.00623</v>
       </c>
       <c r="F34" t="n">
-        <v>0.29955</v>
+        <v>0.10779</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="n">
-        <v>0.96744</v>
+        <v>0.90521</v>
       </c>
       <c r="C35" t="n">
-        <v>0.96385</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.56501</v>
+        <v>0.14683</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00791</v>
+        <v>0.00666</v>
       </c>
       <c r="F35" t="n">
-        <v>0.32264</v>
+        <v>0.11498</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>0.97116</v>
+        <v>0.91521</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9678600000000001</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.69501</v>
+        <v>0.17806</v>
       </c>
       <c r="E36" t="n">
-        <v>0.009390000000000001</v>
+        <v>0.00738</v>
       </c>
       <c r="F36" t="n">
-        <v>0.41289</v>
+        <v>0.13919</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" t="n">
-        <v>0.97157</v>
+        <v>0.93598</v>
       </c>
       <c r="C37" t="n">
-        <v>0.95267</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6842</v>
+        <v>0.22267</v>
       </c>
       <c r="E37" t="n">
-        <v>0.008750000000000001</v>
+        <v>0.00843</v>
       </c>
       <c r="F37" t="n">
-        <v>0.40555</v>
+        <v>0.17432</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" t="n">
-        <v>0.98099</v>
+        <v>0.94059</v>
       </c>
       <c r="C38" t="n">
-        <v>0.97875</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7655999999999999</v>
+        <v>0.21506</v>
       </c>
       <c r="E38" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.00848</v>
       </c>
       <c r="F38" t="n">
-        <v>0.41716</v>
+        <v>0.16481</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B39" t="n">
-        <v>0.97231</v>
+        <v>0.93982</v>
       </c>
       <c r="C39" t="n">
-        <v>0.95529</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.86712</v>
+        <v>0.22533</v>
       </c>
       <c r="E39" t="n">
-        <v>0.009939999999999999</v>
+        <v>0.00865</v>
       </c>
       <c r="F39" t="n">
-        <v>0.49969</v>
+        <v>0.17042</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9805</v>
+        <v>0.94834</v>
       </c>
       <c r="C40" t="n">
-        <v>0.97056</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.86705</v>
+        <v>0.25216</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0097</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4586</v>
+        <v>0.19044</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>0.98438</v>
+        <v>0.9529</v>
       </c>
       <c r="C41" t="n">
-        <v>0.97947</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1.07466</v>
+        <v>0.26075</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0104</v>
+        <v>0.00944</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5658300000000001</v>
+        <v>0.19435</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9817399999999999</v>
+        <v>0.96018</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9605</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1.06131</v>
+        <v>0.292</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01105</v>
+        <v>0.0103</v>
       </c>
       <c r="F42" t="n">
-        <v>0.58067</v>
+        <v>0.21914</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n">
-        <v>0.98645</v>
+        <v>0.95438</v>
       </c>
       <c r="C43" t="n">
-        <v>0.96429</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1.22013</v>
+        <v>0.31654</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01157</v>
+        <v>0.01065</v>
       </c>
       <c r="F43" t="n">
-        <v>0.64461</v>
+        <v>0.23541</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n">
-        <v>0.98281</v>
+        <v>0.9597599999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.95864</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1.24571</v>
+        <v>0.33887</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01244</v>
+        <v>0.01133</v>
       </c>
       <c r="F44" t="n">
-        <v>0.68621</v>
+        <v>0.25289</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" t="n">
-        <v>0.99025</v>
+        <v>0.96609</v>
       </c>
       <c r="C45" t="n">
-        <v>0.97217</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1.21437</v>
+        <v>0.36646</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0122</v>
+        <v>0.01178</v>
       </c>
       <c r="F45" t="n">
-        <v>0.64533</v>
+        <v>0.26871</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" t="n">
-        <v>0.98917</v>
+        <v>0.9659799999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9408300000000001</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1.55975</v>
+        <v>0.41287</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01292</v>
+        <v>0.01259</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9125</v>
+        <v>0.30661</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" t="n">
-        <v>0.99413</v>
+        <v>0.97207</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9616</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1.55596</v>
+        <v>0.41865</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01285</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>0.01279</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.30329</v>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B48" t="n">
-        <v>0.69929</v>
+        <v>0.97018</v>
       </c>
       <c r="C48" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1352</v>
+        <v>0.47559</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00449</v>
+        <v>0.01362</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09898</v>
+        <v>0.34367</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1645,22 +1647,22 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B49" t="n">
-        <v>0.77905</v>
+        <v>0.96828</v>
       </c>
       <c r="C49" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1813</v>
+        <v>0.49278</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00499</v>
+        <v>0.0141</v>
       </c>
       <c r="F49" t="n">
-        <v>0.13054</v>
+        <v>0.35454</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1670,3872 +1672,4951 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B50" t="n">
-        <v>0.82964</v>
+        <v>0.90065</v>
       </c>
       <c r="C50" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21459</v>
+        <v>0.14372</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00579</v>
+        <v>0.00637</v>
       </c>
       <c r="F50" t="n">
-        <v>0.14615</v>
+        <v>0.11406</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8717200000000001</v>
+        <v>0.92012</v>
       </c>
       <c r="C51" t="n">
-        <v>0.96167</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.29947</v>
+        <v>0.15735</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00659</v>
+        <v>0.00689</v>
       </c>
       <c r="F51" t="n">
-        <v>0.20417</v>
+        <v>0.12359</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B52" t="n">
-        <v>0.89669</v>
+        <v>0.92757</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9885699999999999</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.33612</v>
+        <v>0.19051</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00765</v>
+        <v>0.00788</v>
       </c>
       <c r="F52" t="n">
-        <v>0.21881</v>
+        <v>0.14834</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8960399999999999</v>
+        <v>0.92669</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9725</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.38864</v>
+        <v>0.21159</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00763</v>
+        <v>0.00822</v>
       </c>
       <c r="F53" t="n">
-        <v>0.25385</v>
+        <v>0.16156</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>0.91243</v>
+        <v>0.93243</v>
       </c>
       <c r="C54" t="n">
-        <v>0.97444</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4743</v>
+        <v>0.21433</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008319999999999999</v>
+        <v>0.00825</v>
       </c>
       <c r="F54" t="n">
-        <v>0.29938</v>
+        <v>0.16344</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>0.92799</v>
+        <v>0.9434900000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.954</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.53834</v>
+        <v>0.23553</v>
       </c>
       <c r="E55" t="n">
-        <v>0.008670000000000001</v>
+        <v>0.00872</v>
       </c>
       <c r="F55" t="n">
-        <v>0.37214</v>
+        <v>0.17859</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9297</v>
+        <v>0.94609</v>
       </c>
       <c r="C56" t="n">
-        <v>0.95364</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.68303</v>
+        <v>0.25865</v>
       </c>
       <c r="E56" t="n">
-        <v>0.009769999999999999</v>
+        <v>0.00929</v>
       </c>
       <c r="F56" t="n">
-        <v>0.44687</v>
+        <v>0.19637</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B57" t="n">
-        <v>0.94112</v>
+        <v>0.9543199999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9575</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7514999999999999</v>
+        <v>0.29071</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01004</v>
+        <v>0.01001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.48353</v>
+        <v>0.21995</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B58" t="n">
-        <v>0.95207</v>
+        <v>0.95467</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9846200000000001</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.85365</v>
+        <v>0.29336</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01044</v>
+        <v>0.0104</v>
       </c>
       <c r="F58" t="n">
-        <v>0.48909</v>
+        <v>0.22186</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B59" t="n">
-        <v>0.95882</v>
+        <v>0.9605900000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.95718</v>
+        <v>0.31104</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01088</v>
+        <v>0.0106</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5835399999999999</v>
+        <v>0.23369</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9655</v>
+        <v>0.96556</v>
       </c>
       <c r="C60" t="n">
-        <v>0.97067</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1.00603</v>
+        <v>0.35396</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01122</v>
+        <v>0.01156</v>
       </c>
       <c r="F60" t="n">
-        <v>0.59484</v>
+        <v>0.26328</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B61" t="n">
-        <v>0.97101</v>
+        <v>0.95686</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9781300000000001</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1.02335</v>
+        <v>0.38196</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01101</v>
+        <v>0.01196</v>
       </c>
       <c r="F61" t="n">
-        <v>0.55935</v>
+        <v>0.28192</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B62" t="n">
-        <v>0.97893</v>
+        <v>0.9704700000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.97471</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1.20546</v>
+        <v>0.40938</v>
       </c>
       <c r="E62" t="n">
-        <v>0.012</v>
+        <v>0.01259</v>
       </c>
       <c r="F62" t="n">
-        <v>0.66317</v>
+        <v>0.30439</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B63" t="n">
-        <v>0.96953</v>
+        <v>0.96846</v>
       </c>
       <c r="C63" t="n">
-        <v>0.97611</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1.25784</v>
+        <v>0.41232</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01247</v>
+        <v>0.01272</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6956</v>
+        <v>0.30035</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B64" t="n">
-        <v>0.97828</v>
+        <v>0.97065</v>
       </c>
       <c r="C64" t="n">
-        <v>0.97053</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1.36517</v>
+        <v>0.44399</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01394</v>
+        <v>0.01341</v>
       </c>
       <c r="F64" t="n">
-        <v>0.77651</v>
+        <v>0.32087</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B65" t="n">
-        <v>0.97462</v>
+        <v>0.97041</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9595</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1.43262</v>
+        <v>0.45311</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01342</v>
+        <v>0.01354</v>
       </c>
       <c r="F65" t="n">
-        <v>0.84118</v>
+        <v>0.32614</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B66" t="n">
-        <v>0.97722</v>
+        <v>0.87058</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9581</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1.71145</v>
+        <v>0.19558</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01373</v>
+        <v>0.0076</v>
       </c>
       <c r="F66" t="n">
-        <v>1.00669</v>
+        <v>0.15444</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>0.97544</v>
+        <v>0.89738</v>
       </c>
       <c r="C67" t="n">
-        <v>0.97682</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1.6722</v>
+        <v>0.23432</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01457</v>
+        <v>0.00861</v>
       </c>
       <c r="F67" t="n">
-        <v>0.90099</v>
+        <v>0.18632</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B68" t="n">
-        <v>0.98089</v>
+        <v>0.88698</v>
       </c>
       <c r="C68" t="n">
-        <v>0.98087</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1.74707</v>
+        <v>0.25309</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01405</v>
+        <v>0.00929</v>
       </c>
       <c r="F68" t="n">
-        <v>0.93424</v>
+        <v>0.20144</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B69" t="n">
-        <v>0.97639</v>
+        <v>0.90951</v>
       </c>
       <c r="C69" t="n">
-        <v>0.95917</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1.92029</v>
+        <v>0.25867</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01544</v>
+        <v>0.00959</v>
       </c>
       <c r="F69" t="n">
-        <v>1.12534</v>
+        <v>0.20344</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9837900000000001</v>
+        <v>0.91284</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9596</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>2.18359</v>
+        <v>0.28821</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0159</v>
+        <v>0.01034</v>
       </c>
       <c r="F70" t="n">
-        <v>1.24653</v>
+        <v>0.22922</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>0.72095</v>
+        <v>0.9130200000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.98333</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.14989</v>
+        <v>0.30732</v>
       </c>
       <c r="E71" t="n">
-        <v>0.00449</v>
+        <v>0.01086</v>
       </c>
       <c r="F71" t="n">
-        <v>0.11235</v>
+        <v>0.24051</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>0.78349</v>
+        <v>0.93631</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.16731</v>
+        <v>0.3355</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00544</v>
+        <v>0.01159</v>
       </c>
       <c r="F72" t="n">
-        <v>0.12586</v>
+        <v>0.26431</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>0.85012</v>
+        <v>0.9297800000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.23431</v>
+        <v>0.35467</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00565</v>
+        <v>0.01199</v>
       </c>
       <c r="F73" t="n">
-        <v>0.15649</v>
+        <v>0.27475</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B74" t="n">
-        <v>0.85385</v>
+        <v>0.93667</v>
       </c>
       <c r="C74" t="n">
-        <v>0.96333</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.29113</v>
+        <v>0.37944</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00689</v>
+        <v>0.01254</v>
       </c>
       <c r="F74" t="n">
-        <v>0.19532</v>
+        <v>0.29356</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B75" t="n">
-        <v>0.89024</v>
+        <v>0.94484</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9885699999999999</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.38132</v>
+        <v>0.43773</v>
       </c>
       <c r="E75" t="n">
-        <v>0.00713</v>
+        <v>0.0136</v>
       </c>
       <c r="F75" t="n">
-        <v>0.24195</v>
+        <v>0.33445</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B76" t="n">
-        <v>0.91935</v>
+        <v>0.9456</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9825</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.43895</v>
+        <v>0.45458</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00812</v>
+        <v>0.01424</v>
       </c>
       <c r="F76" t="n">
-        <v>0.27607</v>
+        <v>0.34819</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B77" t="n">
-        <v>0.92586</v>
+        <v>0.94969</v>
       </c>
       <c r="C77" t="n">
-        <v>0.97556</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.48279</v>
+        <v>0.47288</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00812</v>
+        <v>0.0143</v>
       </c>
       <c r="F77" t="n">
-        <v>0.29687</v>
+        <v>0.35909</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>0.93237</v>
+        <v>0.95191</v>
       </c>
       <c r="C78" t="n">
-        <v>0.973</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55164</v>
+        <v>0.46074</v>
       </c>
       <c r="E78" t="n">
-        <v>0.008959999999999999</v>
+        <v>0.01446</v>
       </c>
       <c r="F78" t="n">
-        <v>0.33946</v>
+        <v>0.34945</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B79" t="n">
-        <v>0.94858</v>
+        <v>0.94911</v>
       </c>
       <c r="C79" t="n">
-        <v>0.98273</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5889799999999999</v>
+        <v>0.58791</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00927</v>
+        <v>0.0164</v>
       </c>
       <c r="F79" t="n">
-        <v>0.35064</v>
+        <v>0.44225</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B80" t="n">
-        <v>0.94911</v>
+        <v>0.95613</v>
       </c>
       <c r="C80" t="n">
-        <v>0.97083</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.78165</v>
+        <v>0.6147899999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01057</v>
+        <v>0.01708</v>
       </c>
       <c r="F80" t="n">
-        <v>0.47633</v>
+        <v>0.46489</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B81" t="n">
-        <v>0.95473</v>
+        <v>0.9627599999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.96615</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.82953</v>
+        <v>0.61981</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01087</v>
+        <v>0.0172</v>
       </c>
       <c r="F81" t="n">
-        <v>0.49242</v>
+        <v>0.46655</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B82" t="n">
-        <v>0.96243</v>
+        <v>0.8736</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9728599999999999</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8755500000000001</v>
+        <v>0.20319</v>
       </c>
       <c r="E82" t="n">
-        <v>0.011</v>
+        <v>0.00793</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5062</v>
+        <v>0.16427</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B83" t="n">
-        <v>0.95586</v>
+        <v>0.88173</v>
       </c>
       <c r="C83" t="n">
-        <v>0.98133</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0.92842</v>
+        <v>0.22226</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01167</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>0.52259</v>
+        <v>0.17632</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B84" t="n">
-        <v>0.96675</v>
+        <v>0.89133</v>
       </c>
       <c r="C84" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.99096</v>
+        <v>0.25535</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01177</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+        <v>0.00911</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.19986</v>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9687</v>
+        <v>0.90622</v>
       </c>
       <c r="C85" t="n">
-        <v>0.97941</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23958</v>
+        <v>0.28458</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01259</v>
+        <v>0.01021</v>
       </c>
       <c r="F85" t="n">
-        <v>0.69163</v>
+        <v>0.22826</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B86" t="n">
-        <v>0.97195</v>
+        <v>0.91653</v>
       </c>
       <c r="C86" t="n">
-        <v>0.95667</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1.35312</v>
+        <v>0.28711</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01292</v>
+        <v>0.01029</v>
       </c>
       <c r="F86" t="n">
-        <v>0.77906</v>
+        <v>0.22414</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B87" t="n">
-        <v>0.97515</v>
+        <v>0.91898</v>
       </c>
       <c r="C87" t="n">
-        <v>0.95474</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1.42866</v>
+        <v>0.32579</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01352</v>
+        <v>0.01103</v>
       </c>
       <c r="F87" t="n">
-        <v>0.88076</v>
+        <v>0.25617</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B88" t="n">
-        <v>0.97254</v>
+        <v>0.92969</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9575</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1.61289</v>
+        <v>0.36196</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01385</v>
+        <v>0.01187</v>
       </c>
       <c r="F88" t="n">
-        <v>0.94573</v>
+        <v>0.28404</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B89" t="n">
-        <v>0.97834</v>
+        <v>0.92902</v>
       </c>
       <c r="C89" t="n">
-        <v>0.97238</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1.59672</v>
+        <v>0.38026</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01449</v>
+        <v>0.01257</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9018699999999999</v>
+        <v>0.30244</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9745</v>
+        <v>0.93218</v>
       </c>
       <c r="C90" t="n">
-        <v>0.94136</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1.72141</v>
+        <v>0.39868</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0153</v>
+        <v>0.01307</v>
       </c>
       <c r="F90" t="n">
-        <v>1.05708</v>
+        <v>0.30888</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B91" t="n">
-        <v>0.98272</v>
+        <v>0.94284</v>
       </c>
       <c r="C91" t="n">
-        <v>0.98087</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>2.0659</v>
+        <v>0.40454</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01446</v>
+        <v>0.01317</v>
       </c>
       <c r="F91" t="n">
-        <v>1.09879</v>
+        <v>0.3117</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B92" t="n">
-        <v>0.98154</v>
+        <v>0.9484900000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9475</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1.92323</v>
+        <v>0.45141</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01636</v>
+        <v>0.01427</v>
       </c>
       <c r="F92" t="n">
-        <v>1.15094</v>
+        <v>0.34838</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B93" t="n">
-        <v>0.98201</v>
+        <v>0.95013</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9608</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>2.24957</v>
+        <v>0.47477</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01582</v>
+        <v>0.01433</v>
       </c>
       <c r="F93" t="n">
-        <v>1.2556</v>
+        <v>0.3638</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B94" t="n">
-        <v>0.64178</v>
+        <v>0.94529</v>
       </c>
       <c r="C94" t="n">
-        <v>0.98333</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0.18278</v>
+        <v>0.48771</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00552</v>
+        <v>0.01512</v>
       </c>
       <c r="F94" t="n">
-        <v>0.13779</v>
+        <v>0.37075</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B95" t="n">
-        <v>0.70133</v>
+        <v>0.96351</v>
       </c>
       <c r="C95" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0.26702</v>
+        <v>0.5482</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00734</v>
+        <v>0.01568</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2057</v>
+        <v>0.41153</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B96" t="n">
-        <v>0.80031</v>
+        <v>0.9636400000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0.33337</v>
+        <v>0.55792</v>
       </c>
       <c r="E96" t="n">
-        <v>0.00795</v>
+        <v>0.01593</v>
       </c>
       <c r="F96" t="n">
-        <v>0.24149</v>
+        <v>0.41895</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8448</v>
+        <v>0.9589800000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.45378</v>
+        <v>0.65421</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00844</v>
+        <v>0.01738</v>
       </c>
       <c r="F97" t="n">
-        <v>0.31731</v>
+        <v>0.49328</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B98" t="n">
-        <v>0.85858</v>
+        <v>0.83405</v>
       </c>
       <c r="C98" t="n">
-        <v>0.98286</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.51371</v>
+        <v>0.28449</v>
       </c>
       <c r="E98" t="n">
-        <v>0.00932</v>
+        <v>0.00966</v>
       </c>
       <c r="F98" t="n">
-        <v>0.33955</v>
+        <v>0.231</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B99" t="n">
-        <v>0.88822</v>
+        <v>0.84612</v>
       </c>
       <c r="C99" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0.61363</v>
+        <v>0.32615</v>
       </c>
       <c r="E99" t="n">
-        <v>0.01064</v>
+        <v>0.0109</v>
       </c>
       <c r="F99" t="n">
-        <v>0.41811</v>
+        <v>0.26696</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9016</v>
+        <v>0.86796</v>
       </c>
       <c r="C100" t="n">
-        <v>0.97111</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7813600000000001</v>
+        <v>0.33674</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01137</v>
+        <v>0.01147</v>
       </c>
       <c r="F100" t="n">
-        <v>0.51013</v>
+        <v>0.27479</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B101" t="n">
-        <v>0.90551</v>
+        <v>0.87941</v>
       </c>
       <c r="C101" t="n">
-        <v>0.961</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>0.84771</v>
+        <v>0.35791</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01269</v>
+        <v>0.01196</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5837</v>
+        <v>0.29192</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9255100000000001</v>
+        <v>0.8908</v>
       </c>
       <c r="C102" t="n">
-        <v>0.96455</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1.00498</v>
+        <v>0.38919</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0144</v>
+        <v>0.01234</v>
       </c>
       <c r="F102" t="n">
-        <v>0.64547</v>
+        <v>0.31183</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B103" t="n">
-        <v>0.93271</v>
+        <v>0.89273</v>
       </c>
       <c r="C103" t="n">
-        <v>0.98167</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1.04524</v>
+        <v>0.42716</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0142</v>
+        <v>0.01373</v>
       </c>
       <c r="F103" t="n">
-        <v>0.64317</v>
+        <v>0.34493</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B104" t="n">
-        <v>0.93564</v>
+        <v>0.90028</v>
       </c>
       <c r="C104" t="n">
-        <v>0.96538</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1.21851</v>
+        <v>0.44687</v>
       </c>
       <c r="E104" t="n">
-        <v>0.01453</v>
+        <v>0.01415</v>
       </c>
       <c r="F104" t="n">
-        <v>0.79609</v>
+        <v>0.36223</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B105" t="n">
-        <v>0.94271</v>
+        <v>0.91394</v>
       </c>
       <c r="C105" t="n">
-        <v>0.97357</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1.28112</v>
+        <v>0.46277</v>
       </c>
       <c r="E105" t="n">
-        <v>0.01496</v>
+        <v>0.01478</v>
       </c>
       <c r="F105" t="n">
-        <v>0.80652</v>
+        <v>0.36643</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B106" t="n">
-        <v>0.94684</v>
+        <v>0.91855</v>
       </c>
       <c r="C106" t="n">
-        <v>0.97867</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1.42999</v>
+        <v>0.51102</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0142</v>
+        <v>0.01571</v>
       </c>
       <c r="F106" t="n">
-        <v>0.87553</v>
+        <v>0.41185</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B107" t="n">
-        <v>0.95751</v>
+        <v>0.9192</v>
       </c>
       <c r="C107" t="n">
-        <v>0.98062</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1.52103</v>
+        <v>0.53393</v>
       </c>
       <c r="E107" t="n">
-        <v>0.01515</v>
+        <v>0.01648</v>
       </c>
       <c r="F107" t="n">
-        <v>0.88136</v>
+        <v>0.42415</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9636</v>
+        <v>0.93702</v>
       </c>
       <c r="C108" t="n">
-        <v>0.98824</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1.63491</v>
+        <v>0.58218</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01553</v>
+        <v>0.01693</v>
       </c>
       <c r="F108" t="n">
-        <v>0.92335</v>
+        <v>0.45784</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9616</v>
+        <v>0.9354</v>
       </c>
       <c r="C109" t="n">
-        <v>0.97111</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1.65104</v>
+        <v>0.63817</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01576</v>
+        <v>0.01783</v>
       </c>
       <c r="F109" t="n">
-        <v>0.97794</v>
+        <v>0.49911</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B110" t="n">
-        <v>0.97142</v>
+        <v>0.93637</v>
       </c>
       <c r="C110" t="n">
-        <v>0.98842</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>2.16808</v>
+        <v>0.6559700000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01616</v>
+        <v>0.01818</v>
       </c>
       <c r="F110" t="n">
-        <v>1.21475</v>
+        <v>0.51347</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B111" t="n">
-        <v>0.96973</v>
+        <v>0.93633</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9715</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1.92661</v>
+        <v>0.70773</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01729</v>
+        <v>0.01929</v>
       </c>
       <c r="F111" t="n">
-        <v>1.13735</v>
+        <v>0.55507</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B112" t="n">
-        <v>0.97031</v>
+        <v>0.94419</v>
       </c>
       <c r="C112" t="n">
-        <v>0.97571</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>2.24109</v>
+        <v>0.74899</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01707</v>
+        <v>0.01985</v>
       </c>
       <c r="F112" t="n">
-        <v>1.29722</v>
+        <v>0.5788</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B113" t="n">
-        <v>0.96871</v>
+        <v>0.94197</v>
       </c>
       <c r="C113" t="n">
-        <v>0.96273</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>2.27466</v>
+        <v>0.83627</v>
       </c>
       <c r="E113" t="n">
-        <v>0.01894</v>
+        <v>0.02121</v>
       </c>
       <c r="F113" t="n">
-        <v>1.38069</v>
+        <v>0.64158</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B114" t="n">
-        <v>0.97604</v>
+        <v>0.8526</v>
       </c>
       <c r="C114" t="n">
-        <v>0.97087</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>2.54521</v>
+        <v>0.28693</v>
       </c>
       <c r="E114" t="n">
-        <v>0.01776</v>
+        <v>0.01002</v>
       </c>
       <c r="F114" t="n">
-        <v>1.47541</v>
+        <v>0.23587</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B115" t="n">
-        <v>0.97747</v>
+        <v>0.86761</v>
       </c>
       <c r="C115" t="n">
-        <v>0.98542</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>2.77402</v>
+        <v>0.31062</v>
       </c>
       <c r="E115" t="n">
-        <v>0.01866</v>
+        <v>0.01068</v>
       </c>
       <c r="F115" t="n">
-        <v>1.54097</v>
+        <v>0.24931</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B116" t="n">
-        <v>0.98147</v>
+        <v>0.85761</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9808</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>2.9226</v>
+        <v>0.34321</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01896</v>
+        <v>0.0115</v>
       </c>
       <c r="F116" t="n">
-        <v>1.59814</v>
+        <v>0.2767</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B117" t="n">
-        <v>0.67298</v>
+        <v>0.87412</v>
       </c>
       <c r="C117" t="n">
-        <v>0.99333</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0.19658</v>
+        <v>0.34087</v>
       </c>
       <c r="E117" t="n">
-        <v>0.00573</v>
+        <v>0.01188</v>
       </c>
       <c r="F117" t="n">
-        <v>0.15065</v>
+        <v>0.27666</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6944399999999999</v>
+        <v>0.8930399999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9775</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24272</v>
+        <v>0.42318</v>
       </c>
       <c r="E118" t="n">
-        <v>0.00716</v>
+        <v>0.01294</v>
       </c>
       <c r="F118" t="n">
-        <v>0.17746</v>
+        <v>0.3377</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>0.76773</v>
+        <v>0.90232</v>
       </c>
       <c r="C119" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0.33674</v>
+        <v>0.44311</v>
       </c>
       <c r="E119" t="n">
-        <v>0.00766</v>
+        <v>0.01387</v>
       </c>
       <c r="F119" t="n">
-        <v>0.23153</v>
+        <v>0.35541</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B120" t="n">
-        <v>0.80809</v>
+        <v>0.90702</v>
       </c>
       <c r="C120" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.39711</v>
+        <v>0.44361</v>
       </c>
       <c r="E120" t="n">
-        <v>0.008829999999999999</v>
-      </c>
-      <c r="F120" t="inlineStr"/>
+        <v>0.01408</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.35406</v>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B121" t="n">
-        <v>0.87947</v>
+        <v>0.91689</v>
       </c>
       <c r="C121" t="n">
-        <v>0.98286</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>0.49886</v>
+        <v>0.52239</v>
       </c>
       <c r="E121" t="n">
-        <v>0.009310000000000001</v>
+        <v>0.01555</v>
       </c>
       <c r="F121" t="n">
-        <v>0.32735</v>
+        <v>0.41639</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B122" t="n">
-        <v>0.88298</v>
+        <v>0.91813</v>
       </c>
       <c r="C122" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0.65396</v>
+        <v>0.52921</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01032</v>
+        <v>0.01592</v>
       </c>
       <c r="F122" t="n">
-        <v>0.42521</v>
+        <v>0.41828</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8875999999999999</v>
+        <v>0.92491</v>
       </c>
       <c r="C123" t="n">
-        <v>0.96556</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6841</v>
+        <v>0.55966</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01122</v>
+        <v>0.01663</v>
       </c>
       <c r="F123" t="n">
-        <v>0.44509</v>
+        <v>0.44773</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9043600000000001</v>
+        <v>0.92467</v>
       </c>
       <c r="C124" t="n">
-        <v>0.966</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7623</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01119</v>
+        <v>0.01682</v>
       </c>
       <c r="F124" t="n">
-        <v>0.50566</v>
+        <v>0.4444</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B125" t="n">
-        <v>0.92449</v>
+        <v>0.93035</v>
       </c>
       <c r="C125" t="n">
-        <v>0.97182</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0.86778</v>
+        <v>0.5972</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01237</v>
+        <v>0.0175</v>
       </c>
       <c r="F125" t="n">
-        <v>0.54843</v>
+        <v>0.46857</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B126" t="n">
-        <v>0.92293</v>
+        <v>0.94111</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9725</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1.04906</v>
+        <v>0.69619</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01338</v>
+        <v>0.01907</v>
       </c>
       <c r="F126" t="n">
-        <v>0.64896</v>
+        <v>0.54856</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9332</v>
+        <v>0.94097</v>
       </c>
       <c r="C127" t="n">
-        <v>0.98692</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1.18652</v>
+        <v>0.71577</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01336</v>
+        <v>0.0194</v>
       </c>
       <c r="F127" t="n">
-        <v>0.69755</v>
+        <v>0.55626</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B128" t="n">
-        <v>0.93862</v>
+        <v>0.94156</v>
       </c>
       <c r="C128" t="n">
-        <v>0.96929</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1.27976</v>
+        <v>0.75068</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01452</v>
+        <v>0.02018</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7822</v>
+        <v>0.57862</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B129" t="n">
-        <v>0.95013</v>
+        <v>0.9457100000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1.41076</v>
+        <v>0.83166</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01522</v>
+        <v>0.02091</v>
       </c>
       <c r="F129" t="n">
-        <v>0.82691</v>
+        <v>0.6400400000000001</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9467100000000001</v>
+        <v>0.81454</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9725</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1.45509</v>
+        <v>0.39837</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01537</v>
+        <v>0.01226</v>
       </c>
       <c r="F130" t="n">
-        <v>0.88043</v>
+        <v>0.32415</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B131" t="n">
-        <v>0.96196</v>
+        <v>0.82848</v>
       </c>
       <c r="C131" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1.71975</v>
+        <v>0.41199</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01516</v>
+        <v>0.01287</v>
       </c>
       <c r="F131" t="n">
-        <v>0.97488</v>
+        <v>0.33503</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B132" t="n">
-        <v>0.96476</v>
+        <v>0.83748</v>
       </c>
       <c r="C132" t="n">
-        <v>0.97556</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>2.06849</v>
+        <v>0.43268</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01638</v>
+        <v>0.01345</v>
       </c>
       <c r="F132" t="n">
-        <v>1.17481</v>
+        <v>0.35498</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B133" t="n">
-        <v>0.96431</v>
+        <v>0.86269</v>
       </c>
       <c r="C133" t="n">
-        <v>0.97368</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>1.91352</v>
+        <v>0.49806</v>
       </c>
       <c r="E133" t="n">
-        <v>0.01697</v>
+        <v>0.01528</v>
       </c>
       <c r="F133" t="n">
-        <v>1.11574</v>
+        <v>0.40852</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B134" t="n">
-        <v>0.97013</v>
+        <v>0.85956</v>
       </c>
       <c r="C134" t="n">
-        <v>0.967</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>2.03209</v>
+        <v>0.5147699999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.01644</v>
+        <v>0.01553</v>
       </c>
       <c r="F134" t="n">
-        <v>1.17325</v>
+        <v>0.42419</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B135" t="n">
-        <v>0.97493</v>
+        <v>0.87371</v>
       </c>
       <c r="C135" t="n">
-        <v>0.98619</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>2.18896</v>
+        <v>0.53881</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01701</v>
+        <v>0.01618</v>
       </c>
       <c r="F135" t="n">
-        <v>1.20783</v>
+        <v>0.4421</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B136" t="n">
-        <v>0.96827</v>
+        <v>0.88335</v>
       </c>
       <c r="C136" t="n">
-        <v>0.98364</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>2.34131</v>
+        <v>0.60973</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01756</v>
+        <v>0.0175</v>
       </c>
       <c r="F136" t="n">
-        <v>1.27314</v>
+        <v>0.49779</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B137" t="n">
-        <v>0.96404</v>
+        <v>0.89091</v>
       </c>
       <c r="C137" t="n">
-        <v>0.97217</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>2.51158</v>
+        <v>0.63963</v>
       </c>
       <c r="E137" t="n">
-        <v>0.01849</v>
+        <v>0.01775</v>
       </c>
       <c r="F137" t="n">
-        <v>1.39346</v>
+        <v>0.50961</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B138" t="n">
-        <v>0.97404</v>
+        <v>0.8982</v>
       </c>
       <c r="C138" t="n">
-        <v>0.97833</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>2.57503</v>
+        <v>0.70526</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01923</v>
+        <v>0.01967</v>
       </c>
       <c r="F138" t="n">
-        <v>1.46111</v>
+        <v>0.57656</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B139" t="n">
-        <v>0.97658</v>
+        <v>0.90163</v>
       </c>
       <c r="C139" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>3.08708</v>
+        <v>0.72751</v>
       </c>
       <c r="E139" t="n">
-        <v>0.01875</v>
+        <v>0.02028</v>
       </c>
       <c r="F139" t="n">
-        <v>1.72769</v>
+        <v>0.58597</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B140" t="n">
-        <v>0.61339</v>
+        <v>0.91488</v>
       </c>
       <c r="C140" t="n">
-        <v>0.98333</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0.29009</v>
+        <v>0.7698199999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.00751</v>
+        <v>0.02065</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2231</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B141" t="n">
-        <v>0.68751</v>
+        <v>0.91548</v>
       </c>
       <c r="C141" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0.36398</v>
+        <v>0.85276</v>
       </c>
       <c r="E141" t="n">
-        <v>0.00877</v>
+        <v>0.022</v>
       </c>
       <c r="F141" t="n">
-        <v>0.29148</v>
+        <v>0.6836100000000001</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7605499999999999</v>
+        <v>0.91704</v>
       </c>
       <c r="C142" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0.47229</v>
+        <v>0.85989</v>
       </c>
       <c r="E142" t="n">
-        <v>0.009849999999999999</v>
+        <v>0.0226</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3441</v>
+        <v>0.68716</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B143" t="n">
-        <v>0.76128</v>
+        <v>0.93377</v>
       </c>
       <c r="C143" t="n">
-        <v>0.97667</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>0.56712</v>
+        <v>0.93218</v>
       </c>
       <c r="E143" t="n">
-        <v>0.01097</v>
+        <v>0.02353</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4372</v>
+        <v>0.74391</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B144" t="n">
-        <v>0.84862</v>
+        <v>0.93404</v>
       </c>
       <c r="C144" t="n">
-        <v>0.99143</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>0.81563</v>
+        <v>0.91932</v>
       </c>
       <c r="E144" t="n">
-        <v>0.013</v>
+        <v>0.02369</v>
       </c>
       <c r="F144" t="n">
-        <v>0.54949</v>
+        <v>0.73105</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8623499999999999</v>
+        <v>0.92413</v>
       </c>
       <c r="C145" t="n">
-        <v>0.99125</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>0.88221</v>
+        <v>1.02066</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01322</v>
+        <v>0.02535</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5847599999999999</v>
+        <v>0.8123899999999999</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B146" t="n">
-        <v>0.87266</v>
+        <v>0.80349</v>
       </c>
       <c r="C146" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>0.95345</v>
+        <v>0.37868</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0139</v>
+        <v>0.01224</v>
       </c>
       <c r="F146" t="n">
-        <v>0.69339</v>
+        <v>0.31375</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B147" t="n">
-        <v>0.90028</v>
+        <v>0.83266</v>
       </c>
       <c r="C147" t="n">
-        <v>0.986</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1.09653</v>
+        <v>0.4087</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01497</v>
+        <v>0.01296</v>
       </c>
       <c r="F147" t="n">
-        <v>0.70211</v>
+        <v>0.33899</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B148" t="n">
-        <v>0.90609</v>
+        <v>0.85765</v>
       </c>
       <c r="C148" t="n">
-        <v>0.98273</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1.26067</v>
+        <v>0.45073</v>
       </c>
       <c r="E148" t="n">
-        <v>0.01607</v>
+        <v>0.01379</v>
       </c>
       <c r="F148" t="n">
-        <v>0.81872</v>
+        <v>0.36482</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B149" t="n">
-        <v>0.90277</v>
+        <v>0.85773</v>
       </c>
       <c r="C149" t="n">
-        <v>0.98833</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1.50214</v>
+        <v>0.49623</v>
       </c>
       <c r="E149" t="n">
-        <v>0.01696</v>
+        <v>0.01499</v>
       </c>
       <c r="F149" t="n">
-        <v>0.91978</v>
+        <v>0.4039</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B150" t="n">
-        <v>0.92149</v>
+        <v>0.86385</v>
       </c>
       <c r="C150" t="n">
-        <v>0.98154</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>1.38997</v>
+        <v>0.52298</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01851</v>
+        <v>0.01558</v>
       </c>
       <c r="F150" t="n">
-        <v>0.91665</v>
+        <v>0.43182</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B151" t="n">
-        <v>0.93394</v>
+        <v>0.87283</v>
       </c>
       <c r="C151" t="n">
-        <v>0.96429</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1.88107</v>
+        <v>0.55993</v>
       </c>
       <c r="E151" t="n">
-        <v>0.01883</v>
+        <v>0.01669</v>
       </c>
       <c r="F151" t="n">
-        <v>1.26786</v>
+        <v>0.4621</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B152" t="n">
-        <v>0.94304</v>
+        <v>0.88404</v>
       </c>
       <c r="C152" t="n">
-        <v>0.98267</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>2.00547</v>
+        <v>0.62744</v>
       </c>
       <c r="E152" t="n">
-        <v>0.01852</v>
+        <v>0.01819</v>
       </c>
       <c r="F152" t="n">
-        <v>1.20515</v>
+        <v>0.51509</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B153" t="n">
-        <v>0.94758</v>
+        <v>0.89861</v>
       </c>
       <c r="C153" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>2.0247</v>
+        <v>0.66362</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0191</v>
+        <v>0.01852</v>
       </c>
       <c r="F153" t="n">
-        <v>1.2164</v>
+        <v>0.53706</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B154" t="n">
-        <v>0.94675</v>
+        <v>0.90377</v>
       </c>
       <c r="C154" t="n">
-        <v>0.97059</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>2.38524</v>
+        <v>0.67157</v>
       </c>
       <c r="E154" t="n">
-        <v>0.02203</v>
+        <v>0.01948</v>
       </c>
       <c r="F154" t="n">
-        <v>1.47952</v>
+        <v>0.55103</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B155" t="n">
-        <v>0.94779</v>
+        <v>0.90091</v>
       </c>
       <c r="C155" t="n">
-        <v>0.97833</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>2.52193</v>
+        <v>0.70417</v>
       </c>
       <c r="E155" t="n">
-        <v>0.02214</v>
+        <v>0.01993</v>
       </c>
       <c r="F155" t="n">
-        <v>1.57129</v>
+        <v>0.57204</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B156" t="n">
-        <v>0.94657</v>
+        <v>0.90903</v>
       </c>
       <c r="C156" t="n">
-        <v>0.97789</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>2.93733</v>
+        <v>0.77025</v>
       </c>
       <c r="E156" t="n">
-        <v>0.02176</v>
+        <v>0.02103</v>
       </c>
       <c r="F156" t="n">
-        <v>1.76057</v>
+        <v>0.6238899999999999</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9524899999999999</v>
+        <v>0.91784</v>
       </c>
       <c r="C157" t="n">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>2.6779</v>
+        <v>0.83584</v>
       </c>
       <c r="E157" t="n">
-        <v>0.02214</v>
+        <v>0.02221</v>
       </c>
       <c r="F157" t="n">
-        <v>1.66252</v>
+        <v>0.67963</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B158" t="n">
-        <v>0.95858</v>
+        <v>0.92271</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9781</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>2.53129</v>
+        <v>0.82294</v>
       </c>
       <c r="E158" t="n">
-        <v>0.02123</v>
+        <v>0.02205</v>
       </c>
       <c r="F158" t="n">
-        <v>1.52391</v>
+        <v>0.66156</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B159" t="n">
-        <v>0.96744</v>
+        <v>0.93338</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9759100000000001</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>2.91377</v>
+        <v>0.85256</v>
       </c>
       <c r="E159" t="n">
-        <v>0.02137</v>
+        <v>0.02274</v>
       </c>
       <c r="F159" t="n">
-        <v>1.72871</v>
+        <v>0.68552</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B160" t="n">
-        <v>0.97062</v>
+        <v>0.93407</v>
       </c>
       <c r="C160" t="n">
-        <v>0.98739</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>3.46012</v>
+        <v>0.91124</v>
       </c>
       <c r="E160" t="n">
-        <v>0.02292</v>
+        <v>0.0236</v>
       </c>
       <c r="F160" t="n">
-        <v>1.94574</v>
+        <v>0.72077</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B161" t="n">
-        <v>0.96</v>
+        <v>0.9331</v>
       </c>
       <c r="C161" t="n">
-        <v>0.955</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>3.60835</v>
+        <v>1.00001</v>
       </c>
       <c r="E161" t="n">
-        <v>0.02445</v>
+        <v>0.02513</v>
       </c>
       <c r="F161" t="n">
-        <v>2.30678</v>
+        <v>0.79071</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B162" t="n">
-        <v>0.97277</v>
+        <v>0.79143</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9856</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>3.64163</v>
+        <v>0.55162</v>
       </c>
       <c r="E162" t="n">
-        <v>0.02332</v>
+        <v>0.01532</v>
       </c>
       <c r="F162" t="n">
-        <v>2.0439</v>
+        <v>0.46392</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B163" t="n">
-        <v>0.64747</v>
+        <v>0.79728</v>
       </c>
       <c r="C163" t="n">
-        <v>0.98667</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0.29634</v>
+        <v>0.57583</v>
       </c>
       <c r="E163" t="n">
-        <v>0.00709</v>
+        <v>0.01594</v>
       </c>
       <c r="F163" t="n">
-        <v>0.23477</v>
+        <v>0.47793</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B164" t="n">
-        <v>0.72294</v>
+        <v>0.82313</v>
       </c>
       <c r="C164" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>0.42322</v>
+        <v>0.58783</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0086</v>
+        <v>0.01681</v>
       </c>
       <c r="F164" t="n">
-        <v>0.32316</v>
+        <v>0.48775</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.82401</v>
       </c>
       <c r="C165" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>0.47584</v>
+        <v>0.67549</v>
       </c>
       <c r="E165" t="n">
-        <v>0.009509999999999999</v>
+        <v>0.01859</v>
       </c>
       <c r="F165" t="n">
-        <v>0.34182</v>
+        <v>0.5632200000000001</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B166" t="n">
-        <v>0.8026</v>
+        <v>0.84163</v>
       </c>
       <c r="C166" t="n">
-        <v>0.98833</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>0.58238</v>
+        <v>0.70151</v>
       </c>
       <c r="E166" t="n">
-        <v>0.01081</v>
+        <v>0.01942</v>
       </c>
       <c r="F166" t="n">
-        <v>0.41264</v>
+        <v>0.58013</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B167" t="n">
-        <v>0.82799</v>
+        <v>0.84651</v>
       </c>
       <c r="C167" t="n">
-        <v>0.98429</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>0.70568</v>
+        <v>0.741</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0113</v>
+        <v>0.02085</v>
       </c>
       <c r="F167" t="n">
-        <v>0.48552</v>
+        <v>0.61652</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B168" t="n">
-        <v>0.85737</v>
+        <v>0.8539</v>
       </c>
       <c r="C168" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>0.77447</v>
+        <v>0.81632</v>
       </c>
       <c r="E168" t="n">
-        <v>0.01262</v>
+        <v>0.02173</v>
       </c>
       <c r="F168" t="n">
-        <v>0.57283</v>
+        <v>0.67828</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B169" t="n">
-        <v>0.8771600000000001</v>
+        <v>0.86646</v>
       </c>
       <c r="C169" t="n">
-        <v>0.98556</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>0.89125</v>
+        <v>0.79025</v>
       </c>
       <c r="E169" t="n">
-        <v>0.01292</v>
+        <v>0.02192</v>
       </c>
       <c r="F169" t="n">
-        <v>0.57294</v>
+        <v>0.65244</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8976499999999999</v>
+        <v>0.88918</v>
       </c>
       <c r="C170" t="n">
-        <v>0.968</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>1.06002</v>
+        <v>0.87818</v>
       </c>
       <c r="E170" t="n">
-        <v>0.01617</v>
+        <v>0.02329</v>
       </c>
       <c r="F170" t="n">
-        <v>0.74302</v>
+        <v>0.72485</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8996499999999999</v>
+        <v>0.89134</v>
       </c>
       <c r="C171" t="n">
-        <v>0.98909</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>1.29423</v>
+        <v>0.98617</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0141</v>
+        <v>0.02489</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8073</v>
+        <v>0.80642</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B172" t="n">
-        <v>0.90924</v>
+        <v>0.8946</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>1.34489</v>
+        <v>0.94364</v>
       </c>
       <c r="E172" t="n">
-        <v>0.01626</v>
+        <v>0.02482</v>
       </c>
       <c r="F172" t="n">
-        <v>0.83858</v>
+        <v>0.78165</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B173" t="n">
-        <v>0.92484</v>
+        <v>0.89995</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9892300000000001</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>1.51207</v>
+        <v>1.06827</v>
       </c>
       <c r="E173" t="n">
-        <v>0.01595</v>
+        <v>0.0263</v>
       </c>
       <c r="F173" t="n">
-        <v>0.92023</v>
+        <v>0.88088</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B174" t="n">
-        <v>0.93301</v>
+        <v>0.9141</v>
       </c>
       <c r="C174" t="n">
-        <v>0.97714</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>1.53926</v>
+        <v>1.12961</v>
       </c>
       <c r="E174" t="n">
-        <v>0.01711</v>
+        <v>0.02766</v>
       </c>
       <c r="F174" t="n">
-        <v>1.00007</v>
+        <v>0.9235</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B175" t="n">
-        <v>0.93304</v>
+        <v>0.91193</v>
       </c>
       <c r="C175" t="n">
-        <v>0.98867</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>1.7237</v>
+        <v>1.22075</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0175</v>
+        <v>0.02942</v>
       </c>
       <c r="F175" t="n">
-        <v>1.03671</v>
+        <v>1.0009</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B176" t="n">
-        <v>0.94339</v>
+        <v>0.92034</v>
       </c>
       <c r="C176" t="n">
-        <v>0.98687</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>1.91077</v>
+        <v>1.2298</v>
       </c>
       <c r="E176" t="n">
-        <v>0.01826</v>
+        <v>0.0293</v>
       </c>
       <c r="F176" t="n">
-        <v>1.14413</v>
+        <v>1.00398</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B177" t="n">
-        <v>0.94747</v>
+        <v>0.90957</v>
       </c>
       <c r="C177" t="n">
-        <v>0.98647</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>2.16224</v>
+        <v>1.22568</v>
       </c>
       <c r="E177" t="n">
-        <v>0.01853</v>
+        <v>0.02884</v>
       </c>
       <c r="F177" t="n">
-        <v>1.26879</v>
+        <v>0.98681</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B178" t="n">
-        <v>0.95218</v>
+        <v>0.79975</v>
       </c>
       <c r="C178" t="n">
-        <v>0.98722</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>2.32605</v>
+        <v>0.53187</v>
       </c>
       <c r="E178" t="n">
-        <v>0.01971</v>
+        <v>0.01494</v>
       </c>
       <c r="F178" t="n">
-        <v>1.36336</v>
+        <v>0.44828</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B179" t="n">
-        <v>0.95311</v>
+        <v>0.7946</v>
       </c>
       <c r="C179" t="n">
-        <v>0.97368</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>2.47821</v>
+        <v>0.54506</v>
       </c>
       <c r="E179" t="n">
-        <v>0.02048</v>
+        <v>0.01545</v>
       </c>
       <c r="F179" t="n">
-        <v>1.51957</v>
+        <v>0.44972</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B180" t="n">
-        <v>0.9527</v>
+        <v>0.81494</v>
       </c>
       <c r="C180" t="n">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>2.65024</v>
+        <v>0.60684</v>
       </c>
       <c r="E180" t="n">
-        <v>0.02194</v>
+        <v>0.01663</v>
       </c>
       <c r="F180" t="n">
-        <v>1.55774</v>
+        <v>0.50163</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B181" t="n">
-        <v>0.96405</v>
+        <v>0.82265</v>
       </c>
       <c r="C181" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>3.12962</v>
+        <v>0.68596</v>
       </c>
       <c r="E181" t="n">
-        <v>0.02112</v>
+        <v>0.01878</v>
       </c>
       <c r="F181" t="n">
-        <v>1.80332</v>
+        <v>0.56836</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B182" t="n">
-        <v>0.96266</v>
+        <v>0.83683</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9759100000000001</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>2.88739</v>
+        <v>0.63309</v>
       </c>
       <c r="E182" t="n">
-        <v>0.02137</v>
+        <v>0.0177</v>
       </c>
       <c r="F182" t="n">
-        <v>1.70849</v>
+        <v>0.52329</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B183" t="n">
-        <v>0.96702</v>
+        <v>0.85805</v>
       </c>
       <c r="C183" t="n">
-        <v>0.98522</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>3.3235</v>
+        <v>0.75318</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0227</v>
+        <v>0.02004</v>
       </c>
       <c r="F183" t="n">
-        <v>1.90712</v>
+        <v>0.62863</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B184" t="n">
-        <v>0.9686900000000001</v>
+        <v>0.85034</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9775</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>3.56702</v>
+        <v>0.73538</v>
       </c>
       <c r="E184" t="n">
-        <v>0.02264</v>
+        <v>0.02052</v>
       </c>
       <c r="F184" t="n">
-        <v>2.14984</v>
+        <v>0.60598</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B185" t="n">
-        <v>0.96308</v>
+        <v>0.86855</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9708</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>3.408</v>
+        <v>0.81828</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0234</v>
+        <v>0.0224</v>
       </c>
       <c r="F185" t="n">
-        <v>2.02719</v>
+        <v>0.67395</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B186" t="n">
-        <v>0.57557</v>
+        <v>0.87832</v>
       </c>
       <c r="C186" t="n">
-        <v>0.98333</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>0.34092</v>
+        <v>0.92238</v>
       </c>
       <c r="E186" t="n">
-        <v>0.00805</v>
+        <v>0.0242</v>
       </c>
       <c r="F186" t="n">
-        <v>0.2691</v>
+        <v>0.75898</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B187" t="n">
-        <v>0.66992</v>
+        <v>0.88673</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>0.51252</v>
+        <v>0.91486</v>
       </c>
       <c r="E187" t="n">
-        <v>0.01026</v>
+        <v>0.02402</v>
       </c>
       <c r="F187" t="n">
-        <v>0.39055</v>
+        <v>0.74983</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7151</v>
+        <v>0.8904300000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6302</v>
+        <v>0.97092</v>
       </c>
       <c r="E188" t="n">
-        <v>0.01193</v>
+        <v>0.02512</v>
       </c>
       <c r="F188" t="n">
-        <v>0.46331</v>
+        <v>0.79795</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B189" t="n">
-        <v>0.78452</v>
+        <v>0.90229</v>
       </c>
       <c r="C189" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>0.73982</v>
+        <v>1.00708</v>
       </c>
       <c r="E189" t="n">
-        <v>0.01301</v>
+        <v>0.02599</v>
       </c>
       <c r="F189" t="n">
-        <v>0.5532899999999999</v>
+        <v>0.82396</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B190" t="n">
-        <v>0.81097</v>
+        <v>0.90188</v>
       </c>
       <c r="C190" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>0.90082</v>
+        <v>1.06941</v>
       </c>
       <c r="E190" t="n">
-        <v>0.01629</v>
+        <v>0.02687</v>
       </c>
       <c r="F190" t="n">
-        <v>0.72259</v>
+        <v>0.8747</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8210499999999999</v>
+        <v>0.91166</v>
       </c>
       <c r="C191" t="n">
-        <v>0.98375</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1.19002</v>
+        <v>1.14658</v>
       </c>
       <c r="E191" t="n">
-        <v>0.01628</v>
+        <v>0.0282</v>
       </c>
       <c r="F191" t="n">
-        <v>0.82703</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B192" t="n">
-        <v>0.86526</v>
+        <v>0.90138</v>
       </c>
       <c r="C192" t="n">
-        <v>0.99111</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>1.27893</v>
+        <v>1.15804</v>
       </c>
       <c r="E192" t="n">
-        <v>0.01692</v>
+        <v>0.02823</v>
       </c>
       <c r="F192" t="n">
-        <v>0.87599</v>
+        <v>0.9319</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8682</v>
+        <v>0.91288</v>
       </c>
       <c r="C193" t="n">
-        <v>0.964</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>1.56902</v>
+        <v>1.25775</v>
       </c>
       <c r="E193" t="n">
-        <v>0.01955</v>
+        <v>0.03051</v>
       </c>
       <c r="F193" t="n">
-        <v>1.13813</v>
+        <v>1.02548</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B194" t="n">
-        <v>0.89235</v>
+        <v>0.75836</v>
       </c>
       <c r="C194" t="n">
-        <v>0.99182</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>1.62853</v>
+        <v>0.66925</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0196</v>
+        <v>0.01835</v>
       </c>
       <c r="F194" t="n">
-        <v>1.08296</v>
+        <v>0.56649</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B195" t="n">
-        <v>0.90197</v>
+        <v>0.78786</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9916700000000001</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>1.93432</v>
+        <v>0.72013</v>
       </c>
       <c r="E195" t="n">
-        <v>0.01991</v>
+        <v>0.01896</v>
       </c>
       <c r="F195" t="n">
-        <v>1.23099</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B196" t="n">
-        <v>0.89898</v>
+        <v>0.78444</v>
       </c>
       <c r="C196" t="n">
-        <v>0.98846</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>2.39277</v>
+        <v>0.75121</v>
       </c>
       <c r="E196" t="n">
-        <v>0.02218</v>
+        <v>0.02072</v>
       </c>
       <c r="F196" t="n">
-        <v>1.51343</v>
+        <v>0.63687</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9262</v>
+        <v>0.8169</v>
       </c>
       <c r="C197" t="n">
-        <v>0.98929</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>2.37413</v>
+        <v>0.86065</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0222</v>
+        <v>0.02217</v>
       </c>
       <c r="F197" t="n">
-        <v>1.48624</v>
+        <v>0.72218</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B198" t="n">
-        <v>0.92825</v>
+        <v>0.82478</v>
       </c>
       <c r="C198" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>2.52013</v>
+        <v>0.9335599999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>0.02342</v>
+        <v>0.02351</v>
       </c>
       <c r="F198" t="n">
-        <v>1.55112</v>
+        <v>0.77606</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9252899999999999</v>
+        <v>0.83185</v>
       </c>
       <c r="C199" t="n">
-        <v>0.98938</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>2.50846</v>
+        <v>0.94425</v>
       </c>
       <c r="E199" t="n">
-        <v>0.02353</v>
+        <v>0.02429</v>
       </c>
       <c r="F199" t="n">
-        <v>1.54852</v>
+        <v>0.77968</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B200" t="n">
-        <v>0.93989</v>
+        <v>0.84297</v>
       </c>
       <c r="C200" t="n">
-        <v>0.97941</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>2.84602</v>
+        <v>0.97453</v>
       </c>
       <c r="E200" t="n">
-        <v>0.02649</v>
+        <v>0.02492</v>
       </c>
       <c r="F200" t="n">
-        <v>1.81997</v>
+        <v>0.8134400000000001</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B201" t="n">
-        <v>0.94086</v>
+        <v>0.84605</v>
       </c>
       <c r="C201" t="n">
-        <v>0.99222</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>2.90797</v>
+        <v>1.15335</v>
       </c>
       <c r="E201" t="n">
-        <v>0.02575</v>
+        <v>0.02813</v>
       </c>
       <c r="F201" t="n">
-        <v>1.75569</v>
+        <v>0.96109</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B202" t="n">
-        <v>0.94468</v>
+        <v>0.8611</v>
       </c>
       <c r="C202" t="n">
-        <v>0.98895</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>3.24622</v>
+        <v>1.16399</v>
       </c>
       <c r="E202" t="n">
-        <v>0.02507</v>
+        <v>0.02838</v>
       </c>
       <c r="F202" t="n">
-        <v>1.97745</v>
+        <v>0.97136</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B203" t="n">
-        <v>0.94801</v>
+        <v>0.86316</v>
       </c>
       <c r="C203" t="n">
-        <v>0.983</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>3.69345</v>
+        <v>1.19601</v>
       </c>
       <c r="E203" t="n">
-        <v>0.02653</v>
+        <v>0.02862</v>
       </c>
       <c r="F203" t="n">
-        <v>2.24876</v>
+        <v>0.9757</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
+        <v>20</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.87781</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.22706</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.02998</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.02506</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
         <v>21</v>
       </c>
-      <c r="B204" t="n">
-        <v>0.94784</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.96762</v>
-      </c>
-      <c r="D204" t="n">
-        <v>3.68387</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.03021</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2.35801</v>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>(18, 18)</t>
+      <c r="B205" t="n">
+        <v>0.88836</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.29809</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.07269</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>22</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.88902</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.4368</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.03316</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.18384</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>23</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.90605</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.4043</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.03197</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.1536</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>24</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.90378</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.54244</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.26781</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>25</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.90507</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.56097</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.03551</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.27144</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>10</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.77361</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.68418</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.01822</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.57346</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>11</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.7586000000000001</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.6521400000000001</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.0178</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.5456800000000001</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>12</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.77941</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.78884</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.02082</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.66553</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>13</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.81331</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.87349</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.02237</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.72311</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>14</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.8287099999999999</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9271</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.02346</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.78342</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>15</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.83009</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.95246</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.02389</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.7846</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>16</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.84837</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.96362</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.02492</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.81186</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>17</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.85236</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.12798</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.02778</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.94982</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>18</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.86068</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.02962</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.03859</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.86841</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.21283</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.00657</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>20</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.87325</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.26509</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.03037</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.04417</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>21</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.88698</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.28164</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.03037</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.05713</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>22</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.89051</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.40147</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.03361</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.16539</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>23</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.8895999999999999</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.46979</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1.21552</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>24</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.9008699999999999</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.5555</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.03524</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.28742</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>25</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.89539</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.4924</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.03512</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.23065</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>10</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.73248</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.87809</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.02135</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.7362</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>11</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.7607699999999999</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.95672</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.02333</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.81111</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>12</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.76946</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.04378</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.86433</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>13</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.78845</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.02548</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.8823</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>14</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.79571</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.09831</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.02568</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.89735</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>15</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.8159</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.21631</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.02866</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.02499</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>16</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.82226</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.26358</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.03055</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.0637</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>17</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.83107</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.33195</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.03149</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.11093</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>18</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.84434</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.57229</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.03483</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.32489</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>19</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.84706</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.48998</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.03471</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1.23381</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.84994</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.51422</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.03492</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1.26241</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>21</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.86731</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.78419</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.03889</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.50338</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>22</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.86565</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.81396</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.04009</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.52445</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>23</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.87566</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.73086</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.03924</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1.44834</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>24</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.88258</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.95344</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.04263</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.62735</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>25</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2.12705</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.04499</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.77292</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>20</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.82337</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2.60069</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.05139</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2.18921</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>21</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.83694</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2.72379</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.05447</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2.30638</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>22</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.83975</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2.758</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.05369</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2.32817</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>23</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.8383</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2.96248</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.05693</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2.49642</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>24</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.86027</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.076</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.06009</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2.62379</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>25</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.85663</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3.02173</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.06053</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2.57429</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>

--- a/astar_swarm.xlsx
+++ b/astar_swarm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,376 +497,376 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.93438</v>
+        <v>0.91752</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11852</v>
+        <v>0.09853000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00564</v>
+        <v>0.00493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08914</v>
+        <v>0.07452</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9457</v>
+        <v>0.90172</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13654</v>
+        <v>0.1384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00638</v>
+        <v>0.00623</v>
       </c>
       <c r="F4" t="n">
-        <v>0.10144</v>
+        <v>0.10779</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.95041</v>
+        <v>0.90065</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15709</v>
+        <v>0.14372</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00694</v>
+        <v>0.00637</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11706</v>
+        <v>0.11406</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.95306</v>
+        <v>0.87058</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16967</v>
+        <v>0.19558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00714</v>
+        <v>0.0076</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12632</v>
+        <v>0.15444</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.96157</v>
+        <v>0.8736</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17357</v>
+        <v>0.20319</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00704</v>
+        <v>0.00793</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12587</v>
+        <v>0.16427</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9628100000000001</v>
+        <v>0.83405</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20182</v>
+        <v>0.28449</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0078</v>
+        <v>0.00966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.14774</v>
+        <v>0.231</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.97182</v>
+        <v>0.8526</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22318</v>
+        <v>0.28693</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00864</v>
+        <v>0.01002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.16208</v>
+        <v>0.23587</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.96587</v>
+        <v>0.81454</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22992</v>
+        <v>0.39837</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00839</v>
+        <v>0.01226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16572</v>
+        <v>0.32415</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.97785</v>
+        <v>0.80349</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24935</v>
+        <v>0.37868</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00885</v>
+        <v>0.01224</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1789</v>
+        <v>0.31375</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9775199999999999</v>
+        <v>0.79143</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.27112</v>
+        <v>0.55162</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00937</v>
+        <v>0.01532</v>
       </c>
       <c r="F12" t="n">
-        <v>0.19226</v>
+        <v>0.46392</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9783500000000001</v>
+        <v>0.79975</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30361</v>
+        <v>0.53187</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01002</v>
+        <v>0.01494</v>
       </c>
       <c r="F13" t="n">
-        <v>0.21598</v>
+        <v>0.44828</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>0.98256</v>
+        <v>0.75836</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.34129</v>
+        <v>0.66925</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01101</v>
+        <v>0.01835</v>
       </c>
       <c r="F14" t="n">
-        <v>0.24054</v>
+        <v>0.56649</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>0.97876</v>
+        <v>0.77361</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3559</v>
+        <v>0.68418</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01126</v>
+        <v>0.01822</v>
       </c>
       <c r="F15" t="n">
-        <v>0.24796</v>
+        <v>0.57346</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.98339</v>
+        <v>0.73248</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.35175</v>
+        <v>0.87809</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01105</v>
+        <v>0.02135</v>
       </c>
       <c r="F16" t="n">
-        <v>0.24476</v>
+        <v>0.7362</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>0.98355</v>
+        <v>0.7444</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.37102</v>
+        <v>1.50628</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01126</v>
+        <v>0.03711</v>
       </c>
       <c r="F17" t="n">
-        <v>0.25433</v>
+        <v>1.25193</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
@@ -875,169 +875,169 @@
         <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.91752</v>
+        <v>0.7194199999999999</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09853000000000001</v>
+        <v>1.99801</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00493</v>
+        <v>0.04521</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07452</v>
+        <v>1.70044</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>0.94331</v>
+        <v>0.71294</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11393</v>
+        <v>1.90542</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00549</v>
+        <v>0.04357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08667</v>
+        <v>1.58337</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
-        <v>0.94521</v>
+        <v>0.68181</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.13308</v>
+        <v>2.48948</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00594</v>
+        <v>0.05202</v>
       </c>
       <c r="F20" t="n">
-        <v>0.10092</v>
+        <v>2.09821</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" t="n">
-        <v>0.95248</v>
+        <v>0.68149</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.14551</v>
+        <v>2.37189</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00646</v>
+        <v>0.05081</v>
       </c>
       <c r="F21" t="n">
-        <v>0.10881</v>
+        <v>2.02028</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>0.95645</v>
+        <v>0.67761</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16584</v>
+        <v>3.19854</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00686</v>
+        <v>0.06514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.12385</v>
+        <v>2.728</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" t="n">
-        <v>0.95669</v>
+        <v>0.93438</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16958</v>
+        <v>0.11852</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00711</v>
+        <v>0.00564</v>
       </c>
       <c r="F23" t="n">
-        <v>0.12469</v>
+        <v>0.08914</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>0.95934</v>
+        <v>0.94331</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18841</v>
+        <v>0.11393</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00758</v>
+        <v>0.00549</v>
       </c>
       <c r="F24" t="n">
-        <v>0.13782</v>
+        <v>0.08667</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1047,251 +1047,251 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9700800000000001</v>
+        <v>0.90521</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20966</v>
+        <v>0.14683</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008019999999999999</v>
+        <v>0.00666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.15107</v>
+        <v>0.11498</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B26" t="n">
-        <v>0.97074</v>
+        <v>0.92012</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22504</v>
+        <v>0.15735</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008189999999999999</v>
+        <v>0.00689</v>
       </c>
       <c r="F26" t="n">
-        <v>0.16089</v>
+        <v>0.12359</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B27" t="n">
-        <v>0.97083</v>
+        <v>0.89738</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.24366</v>
+        <v>0.23432</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00873</v>
+        <v>0.00861</v>
       </c>
       <c r="F27" t="n">
-        <v>0.17209</v>
+        <v>0.18632</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9734699999999999</v>
+        <v>0.88173</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.26994</v>
+        <v>0.22226</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00942</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.19171</v>
+        <v>0.17632</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B29" t="n">
-        <v>0.97554</v>
+        <v>0.84612</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.29356</v>
+        <v>0.32615</v>
       </c>
       <c r="E29" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0109</v>
       </c>
       <c r="F29" t="n">
-        <v>0.20693</v>
+        <v>0.26696</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9795</v>
+        <v>0.86761</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.32184</v>
+        <v>0.31062</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01042</v>
+        <v>0.01068</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2233</v>
+        <v>0.24931</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9783500000000001</v>
+        <v>0.82848</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.34452</v>
+        <v>0.41199</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01064</v>
+        <v>0.01287</v>
       </c>
       <c r="F31" t="n">
-        <v>0.23971</v>
+        <v>0.33503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B32" t="n">
-        <v>0.98306</v>
+        <v>0.83266</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.33839</v>
+        <v>0.4087</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01085</v>
+        <v>0.01296</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2355</v>
+        <v>0.33899</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>0.98521</v>
+        <v>0.79728</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.37323</v>
+        <v>0.57583</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01138</v>
+        <v>0.01594</v>
       </c>
       <c r="F33" t="n">
-        <v>0.25729</v>
+        <v>0.47793</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>0.90172</v>
+        <v>0.7946</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1384</v>
+        <v>0.54506</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00623</v>
+        <v>0.01545</v>
       </c>
       <c r="F34" t="n">
-        <v>0.10779</v>
+        <v>0.44972</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
@@ -1300,294 +1300,294 @@
         <v>11</v>
       </c>
       <c r="B35" t="n">
-        <v>0.90521</v>
+        <v>0.78786</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.14683</v>
+        <v>0.72013</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00666</v>
+        <v>0.01896</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11498</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>0.91521</v>
+        <v>0.7586000000000001</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.17806</v>
+        <v>0.6521400000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00738</v>
+        <v>0.0178</v>
       </c>
       <c r="F36" t="n">
-        <v>0.13919</v>
+        <v>0.5456800000000001</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" t="n">
-        <v>0.93598</v>
+        <v>0.7607699999999999</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22267</v>
+        <v>0.95672</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00843</v>
+        <v>0.02333</v>
       </c>
       <c r="F37" t="n">
-        <v>0.17432</v>
+        <v>0.81111</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>0.94059</v>
+        <v>0.75274</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.21506</v>
+        <v>1.5367</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00848</v>
+        <v>0.03846</v>
       </c>
       <c r="F38" t="n">
-        <v>0.16481</v>
+        <v>1.27961</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B39" t="n">
-        <v>0.93982</v>
+        <v>0.73992</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22533</v>
+        <v>2.2624</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00865</v>
+        <v>0.05129</v>
       </c>
       <c r="F39" t="n">
-        <v>0.17042</v>
+        <v>1.94659</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>0.94834</v>
+        <v>0.72768</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.25216</v>
+        <v>2.02431</v>
       </c>
       <c r="E40" t="n">
-        <v>0.009140000000000001</v>
+        <v>0.04762</v>
       </c>
       <c r="F40" t="n">
-        <v>0.19044</v>
+        <v>1.73222</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9529</v>
+        <v>0.69952</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.26075</v>
+        <v>2.69279</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00944</v>
+        <v>0.05829</v>
       </c>
       <c r="F41" t="n">
-        <v>0.19435</v>
+        <v>2.31492</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>0.96018</v>
+        <v>0.71228</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.292</v>
+        <v>2.78575</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0103</v>
+        <v>0.06137</v>
       </c>
       <c r="F42" t="n">
-        <v>0.21914</v>
+        <v>2.42331</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>0.95438</v>
+        <v>0.71112</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.31654</v>
+        <v>3.2157</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01065</v>
+        <v>0.06351999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.23541</v>
+        <v>2.73624</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9597599999999999</v>
+        <v>0.9457</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.33887</v>
+        <v>0.13654</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01133</v>
+        <v>0.00638</v>
       </c>
       <c r="F44" t="n">
-        <v>0.25289</v>
+        <v>0.10144</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B45" t="n">
-        <v>0.96609</v>
+        <v>0.94521</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.36646</v>
+        <v>0.13308</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01178</v>
+        <v>0.00594</v>
       </c>
       <c r="F45" t="n">
-        <v>0.26871</v>
+        <v>0.10092</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9659799999999999</v>
+        <v>0.91521</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.41287</v>
+        <v>0.17806</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01259</v>
+        <v>0.00738</v>
       </c>
       <c r="F46" t="n">
-        <v>0.30661</v>
+        <v>0.13919</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1597,126 +1597,126 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
-        <v>0.97207</v>
+        <v>0.92757</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.41865</v>
+        <v>0.19051</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01279</v>
+        <v>0.00788</v>
       </c>
       <c r="F47" t="n">
-        <v>0.30329</v>
+        <v>0.14834</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B48" t="n">
-        <v>0.97018</v>
+        <v>0.88698</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.47559</v>
+        <v>0.25309</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01362</v>
+        <v>0.00929</v>
       </c>
       <c r="F48" t="n">
-        <v>0.34367</v>
+        <v>0.20144</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B49" t="n">
-        <v>0.96828</v>
+        <v>0.89133</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.49278</v>
+        <v>0.25535</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0141</v>
+        <v>0.00911</v>
       </c>
       <c r="F49" t="n">
-        <v>0.35454</v>
+        <v>0.19986</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50" t="n">
-        <v>0.90065</v>
+        <v>0.86796</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14372</v>
+        <v>0.33674</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00637</v>
+        <v>0.01147</v>
       </c>
       <c r="F50" t="n">
-        <v>0.11406</v>
+        <v>0.27479</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" t="n">
-        <v>0.92012</v>
+        <v>0.85761</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.15735</v>
+        <v>0.34321</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00689</v>
+        <v>0.0115</v>
       </c>
       <c r="F51" t="n">
-        <v>0.12359</v>
+        <v>0.2767</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
@@ -1725,423 +1725,423 @@
         <v>12</v>
       </c>
       <c r="B52" t="n">
-        <v>0.92757</v>
+        <v>0.83748</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19051</v>
+        <v>0.43268</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00788</v>
+        <v>0.01345</v>
       </c>
       <c r="F52" t="n">
-        <v>0.14834</v>
+        <v>0.35498</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" t="n">
-        <v>0.92669</v>
+        <v>0.85765</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.21159</v>
+        <v>0.45073</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00822</v>
+        <v>0.01379</v>
       </c>
       <c r="F53" t="n">
-        <v>0.16156</v>
+        <v>0.36482</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B54" t="n">
-        <v>0.93243</v>
+        <v>0.82313</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.21433</v>
+        <v>0.58783</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00825</v>
+        <v>0.01681</v>
       </c>
       <c r="F54" t="n">
-        <v>0.16344</v>
+        <v>0.48775</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9434900000000001</v>
+        <v>0.81494</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23553</v>
+        <v>0.60684</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00872</v>
+        <v>0.01663</v>
       </c>
       <c r="F55" t="n">
-        <v>0.17859</v>
+        <v>0.50163</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>0.94609</v>
+        <v>0.78444</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25865</v>
+        <v>0.75121</v>
       </c>
       <c r="E56" t="n">
-        <v>0.00929</v>
+        <v>0.02072</v>
       </c>
       <c r="F56" t="n">
-        <v>0.19637</v>
+        <v>0.63687</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9543199999999999</v>
+        <v>0.77941</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.29071</v>
+        <v>0.78884</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01001</v>
+        <v>0.02082</v>
       </c>
       <c r="F57" t="n">
-        <v>0.21995</v>
+        <v>0.66553</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B58" t="n">
-        <v>0.95467</v>
+        <v>0.76946</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.29336</v>
+        <v>1.04378</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0104</v>
+        <v>0.02502</v>
       </c>
       <c r="F58" t="n">
-        <v>0.22186</v>
+        <v>0.86433</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9605900000000001</v>
+        <v>0.75325</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.31104</v>
+        <v>1.75464</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0106</v>
+        <v>0.04209</v>
       </c>
       <c r="F59" t="n">
-        <v>0.23369</v>
+        <v>1.46671</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>0.96556</v>
+        <v>0.75325</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.35396</v>
+        <v>2.11408</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01156</v>
+        <v>0.04896</v>
       </c>
       <c r="F60" t="n">
-        <v>0.26328</v>
+        <v>1.7777</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B61" t="n">
-        <v>0.95686</v>
+        <v>0.75051</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.38196</v>
+        <v>2.41417</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01196</v>
+        <v>0.05147</v>
       </c>
       <c r="F61" t="n">
-        <v>0.28192</v>
+        <v>2.06265</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9704700000000001</v>
+        <v>0.72548</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.40938</v>
+        <v>2.75513</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01259</v>
+        <v>0.05867</v>
       </c>
       <c r="F62" t="n">
-        <v>0.30439</v>
+        <v>2.31686</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B63" t="n">
-        <v>0.96846</v>
+        <v>0.73164</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.41232</v>
+        <v>2.75078</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01272</v>
+        <v>0.05821</v>
       </c>
       <c r="F63" t="n">
-        <v>0.30035</v>
+        <v>2.3265</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B64" t="n">
-        <v>0.97065</v>
+        <v>0.71046</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.44399</v>
+        <v>3.48195</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01341</v>
+        <v>0.07081999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>0.32087</v>
+        <v>2.98343</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B65" t="n">
-        <v>0.97041</v>
+        <v>0.95041</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.45311</v>
+        <v>0.15709</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01354</v>
+        <v>0.00694</v>
       </c>
       <c r="F65" t="n">
-        <v>0.32614</v>
+        <v>0.11706</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B66" t="n">
-        <v>0.87058</v>
+        <v>0.95248</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.19558</v>
+        <v>0.14551</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0076</v>
+        <v>0.00646</v>
       </c>
       <c r="F66" t="n">
-        <v>0.15444</v>
+        <v>0.10881</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B67" t="n">
-        <v>0.89738</v>
+        <v>0.93598</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23432</v>
+        <v>0.22267</v>
       </c>
       <c r="E67" t="n">
-        <v>0.00861</v>
+        <v>0.00843</v>
       </c>
       <c r="F67" t="n">
-        <v>0.18632</v>
+        <v>0.17432</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B68" t="n">
-        <v>0.88698</v>
+        <v>0.92669</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.25309</v>
+        <v>0.21159</v>
       </c>
       <c r="E68" t="n">
-        <v>0.00929</v>
+        <v>0.00822</v>
       </c>
       <c r="F68" t="n">
-        <v>0.20144</v>
+        <v>0.16156</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
@@ -2172,376 +2172,376 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" t="n">
-        <v>0.91284</v>
+        <v>0.90622</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.28821</v>
+        <v>0.28458</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01034</v>
+        <v>0.01021</v>
       </c>
       <c r="F70" t="n">
-        <v>0.22922</v>
+        <v>0.22826</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9130200000000001</v>
+        <v>0.87941</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.30732</v>
+        <v>0.35791</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01086</v>
+        <v>0.01196</v>
       </c>
       <c r="F71" t="n">
-        <v>0.24051</v>
+        <v>0.29192</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B72" t="n">
-        <v>0.93631</v>
+        <v>0.87412</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3355</v>
+        <v>0.34087</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01159</v>
+        <v>0.01188</v>
       </c>
       <c r="F72" t="n">
-        <v>0.26431</v>
+        <v>0.27666</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9297800000000001</v>
+        <v>0.86269</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35467</v>
+        <v>0.49806</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01199</v>
+        <v>0.01528</v>
       </c>
       <c r="F73" t="n">
-        <v>0.27475</v>
+        <v>0.40852</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B74" t="n">
-        <v>0.93667</v>
+        <v>0.85773</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.37944</v>
+        <v>0.49623</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01254</v>
+        <v>0.01499</v>
       </c>
       <c r="F74" t="n">
-        <v>0.29356</v>
+        <v>0.4039</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B75" t="n">
-        <v>0.94484</v>
+        <v>0.82401</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.43773</v>
+        <v>0.67549</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0136</v>
+        <v>0.01859</v>
       </c>
       <c r="F75" t="n">
-        <v>0.33445</v>
+        <v>0.5632200000000001</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9456</v>
+        <v>0.82265</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.45458</v>
+        <v>0.68596</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01424</v>
+        <v>0.01878</v>
       </c>
       <c r="F76" t="n">
-        <v>0.34819</v>
+        <v>0.56836</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B77" t="n">
-        <v>0.94969</v>
+        <v>0.8169</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.47288</v>
+        <v>0.86065</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0143</v>
+        <v>0.02217</v>
       </c>
       <c r="F77" t="n">
-        <v>0.35909</v>
+        <v>0.72218</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B78" t="n">
-        <v>0.95191</v>
+        <v>0.81331</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.46074</v>
+        <v>0.87349</v>
       </c>
       <c r="E78" t="n">
-        <v>0.01446</v>
+        <v>0.02237</v>
       </c>
       <c r="F78" t="n">
-        <v>0.34945</v>
+        <v>0.72311</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B79" t="n">
-        <v>0.94911</v>
+        <v>0.78845</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.58791</v>
+        <v>1.054</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0164</v>
+        <v>0.02548</v>
       </c>
       <c r="F79" t="n">
-        <v>0.44225</v>
+        <v>0.8823</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B80" t="n">
-        <v>0.95613</v>
+        <v>0.7942399999999999</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6147899999999999</v>
+        <v>1.85069</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01708</v>
+        <v>0.04556</v>
       </c>
       <c r="F80" t="n">
-        <v>0.46489</v>
+        <v>1.58342</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9627599999999999</v>
+        <v>0.76453</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.61981</v>
+        <v>2.40783</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0172</v>
+        <v>0.0546</v>
       </c>
       <c r="F81" t="n">
-        <v>0.46655</v>
+        <v>2.04543</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8736</v>
+        <v>0.75796</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.20319</v>
+        <v>2.34345</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00793</v>
+        <v>0.05388</v>
       </c>
       <c r="F82" t="n">
-        <v>0.16427</v>
+        <v>1.97638</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B83" t="n">
-        <v>0.88173</v>
+        <v>0.72628</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0.22226</v>
+        <v>2.97841</v>
       </c>
       <c r="E83" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.06340999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17632</v>
+        <v>2.52145</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84" t="n">
-        <v>0.89133</v>
+        <v>0.74427</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.25535</v>
+        <v>2.9689</v>
       </c>
       <c r="E84" t="n">
-        <v>0.00911</v>
+        <v>0.06213</v>
       </c>
       <c r="F84" t="n">
-        <v>0.19986</v>
+        <v>2.52162</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
@@ -2550,23 +2550,23 @@
         <v>13</v>
       </c>
       <c r="B85" t="n">
-        <v>0.90622</v>
+        <v>0.7427</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.28458</v>
+        <v>3.71129</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01021</v>
+        <v>0.07258000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>0.22826</v>
+        <v>3.16187</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
@@ -2575,144 +2575,144 @@
         <v>14</v>
       </c>
       <c r="B86" t="n">
-        <v>0.91653</v>
+        <v>0.95306</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0.28711</v>
+        <v>0.16967</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01029</v>
+        <v>0.00714</v>
       </c>
       <c r="F86" t="n">
-        <v>0.22414</v>
+        <v>0.12632</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87" t="n">
-        <v>0.91898</v>
+        <v>0.95645</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0.32579</v>
+        <v>0.16584</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01103</v>
+        <v>0.00686</v>
       </c>
       <c r="F87" t="n">
-        <v>0.25617</v>
+        <v>0.12385</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B88" t="n">
-        <v>0.92969</v>
+        <v>0.94059</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36196</v>
+        <v>0.21506</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01187</v>
+        <v>0.00848</v>
       </c>
       <c r="F88" t="n">
-        <v>0.28404</v>
+        <v>0.16481</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B89" t="n">
-        <v>0.92902</v>
+        <v>0.93243</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0.38026</v>
+        <v>0.21433</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01257</v>
+        <v>0.00825</v>
       </c>
       <c r="F89" t="n">
-        <v>0.30244</v>
+        <v>0.16344</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B90" t="n">
-        <v>0.93218</v>
+        <v>0.91284</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39868</v>
+        <v>0.28821</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01307</v>
+        <v>0.01034</v>
       </c>
       <c r="F90" t="n">
-        <v>0.30888</v>
+        <v>0.22922</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B91" t="n">
-        <v>0.94284</v>
+        <v>0.91653</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40454</v>
+        <v>0.28711</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01317</v>
+        <v>0.01029</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3117</v>
+        <v>0.22414</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2722,251 +2722,251 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9484900000000001</v>
+        <v>0.8908</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.45141</v>
+        <v>0.38919</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01427</v>
+        <v>0.01234</v>
       </c>
       <c r="F92" t="n">
-        <v>0.34838</v>
+        <v>0.31183</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B93" t="n">
-        <v>0.95013</v>
+        <v>0.8930399999999999</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0.47477</v>
+        <v>0.42318</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01433</v>
+        <v>0.01294</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3638</v>
+        <v>0.3377</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B94" t="n">
-        <v>0.94529</v>
+        <v>0.85956</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0.48771</v>
+        <v>0.5147699999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.01512</v>
+        <v>0.01553</v>
       </c>
       <c r="F94" t="n">
-        <v>0.37075</v>
+        <v>0.42419</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B95" t="n">
-        <v>0.96351</v>
+        <v>0.86385</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5482</v>
+        <v>0.52298</v>
       </c>
       <c r="E95" t="n">
-        <v>0.01568</v>
+        <v>0.01558</v>
       </c>
       <c r="F95" t="n">
-        <v>0.41153</v>
+        <v>0.43182</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9636400000000001</v>
+        <v>0.84163</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0.55792</v>
+        <v>0.70151</v>
       </c>
       <c r="E96" t="n">
-        <v>0.01593</v>
+        <v>0.01942</v>
       </c>
       <c r="F96" t="n">
-        <v>0.41895</v>
+        <v>0.58013</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9589800000000001</v>
+        <v>0.83683</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.65421</v>
+        <v>0.63309</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01738</v>
+        <v>0.0177</v>
       </c>
       <c r="F97" t="n">
-        <v>0.49328</v>
+        <v>0.52329</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B98" t="n">
-        <v>0.83405</v>
+        <v>0.82478</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.28449</v>
+        <v>0.9335599999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.00966</v>
+        <v>0.02351</v>
       </c>
       <c r="F98" t="n">
-        <v>0.231</v>
+        <v>0.77606</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B99" t="n">
-        <v>0.84612</v>
+        <v>0.8287099999999999</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0.32615</v>
+        <v>0.9271</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0109</v>
+        <v>0.02346</v>
       </c>
       <c r="F99" t="n">
-        <v>0.26696</v>
+        <v>0.78342</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B100" t="n">
-        <v>0.86796</v>
+        <v>0.79571</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0.33674</v>
+        <v>1.09831</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01147</v>
+        <v>0.02568</v>
       </c>
       <c r="F100" t="n">
-        <v>0.27479</v>
+        <v>0.89735</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B101" t="n">
-        <v>0.87941</v>
+        <v>0.79539</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>0.35791</v>
+        <v>1.91815</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01196</v>
+        <v>0.04665</v>
       </c>
       <c r="F101" t="n">
-        <v>0.29192</v>
+        <v>1.62686</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
@@ -2975,294 +2975,294 @@
         <v>14</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8908</v>
+        <v>0.7700399999999999</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0.38919</v>
+        <v>2.42162</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01234</v>
+        <v>0.05477</v>
       </c>
       <c r="F102" t="n">
-        <v>0.31183</v>
+        <v>2.07657</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103" t="n">
-        <v>0.89273</v>
+        <v>0.78776</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>0.42716</v>
+        <v>2.45956</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01373</v>
+        <v>0.05534</v>
       </c>
       <c r="F103" t="n">
-        <v>0.34493</v>
+        <v>2.07099</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B104" t="n">
-        <v>0.90028</v>
+        <v>0.75992</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>0.44687</v>
+        <v>3.1765</v>
       </c>
       <c r="E104" t="n">
-        <v>0.01415</v>
+        <v>0.06723999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.36223</v>
+        <v>2.72449</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B105" t="n">
-        <v>0.91394</v>
+        <v>0.7691</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>0.46277</v>
+        <v>3.41531</v>
       </c>
       <c r="E105" t="n">
-        <v>0.01478</v>
+        <v>0.06847</v>
       </c>
       <c r="F105" t="n">
-        <v>0.36643</v>
+        <v>2.90591</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B106" t="n">
-        <v>0.91855</v>
+        <v>0.74081</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>0.51102</v>
+        <v>4.21625</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01571</v>
+        <v>0.08130999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.41185</v>
+        <v>3.65433</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9192</v>
+        <v>0.96157</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>0.53393</v>
+        <v>0.17357</v>
       </c>
       <c r="E107" t="n">
-        <v>0.01648</v>
+        <v>0.00704</v>
       </c>
       <c r="F107" t="n">
-        <v>0.42415</v>
+        <v>0.12587</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B108" t="n">
-        <v>0.93702</v>
+        <v>0.95669</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0.58218</v>
+        <v>0.16958</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01693</v>
+        <v>0.00711</v>
       </c>
       <c r="F108" t="n">
-        <v>0.45784</v>
+        <v>0.12469</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9354</v>
+        <v>0.93982</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0.63817</v>
+        <v>0.22533</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01783</v>
+        <v>0.00865</v>
       </c>
       <c r="F109" t="n">
-        <v>0.49911</v>
+        <v>0.17042</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B110" t="n">
-        <v>0.93637</v>
+        <v>0.9434900000000001</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6559700000000001</v>
+        <v>0.23553</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01818</v>
+        <v>0.00872</v>
       </c>
       <c r="F110" t="n">
-        <v>0.51347</v>
+        <v>0.17859</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B111" t="n">
-        <v>0.93633</v>
+        <v>0.9130200000000001</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>0.70773</v>
+        <v>0.30732</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01929</v>
+        <v>0.01086</v>
       </c>
       <c r="F111" t="n">
-        <v>0.55507</v>
+        <v>0.24051</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B112" t="n">
-        <v>0.94419</v>
+        <v>0.91898</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>0.74899</v>
+        <v>0.32579</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01985</v>
+        <v>0.01103</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5788</v>
+        <v>0.25617</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B113" t="n">
-        <v>0.94197</v>
+        <v>0.89273</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.83627</v>
+        <v>0.42716</v>
       </c>
       <c r="E113" t="n">
-        <v>0.02121</v>
+        <v>0.01373</v>
       </c>
       <c r="F113" t="n">
-        <v>0.64158</v>
+        <v>0.34493</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3272,22 +3272,22 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8526</v>
+        <v>0.90232</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0.28693</v>
+        <v>0.44311</v>
       </c>
       <c r="E114" t="n">
-        <v>0.01002</v>
+        <v>0.01387</v>
       </c>
       <c r="F114" t="n">
-        <v>0.23587</v>
+        <v>0.35541</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3297,101 +3297,101 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B115" t="n">
-        <v>0.86761</v>
+        <v>0.87371</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>0.31062</v>
+        <v>0.53881</v>
       </c>
       <c r="E115" t="n">
-        <v>0.01068</v>
+        <v>0.01618</v>
       </c>
       <c r="F115" t="n">
-        <v>0.24931</v>
+        <v>0.4421</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B116" t="n">
-        <v>0.85761</v>
+        <v>0.87283</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>0.34321</v>
+        <v>0.55993</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0115</v>
+        <v>0.01669</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2767</v>
+        <v>0.4621</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>0.87412</v>
+        <v>0.84651</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0.34087</v>
+        <v>0.741</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01188</v>
+        <v>0.02085</v>
       </c>
       <c r="F117" t="n">
-        <v>0.27666</v>
+        <v>0.61652</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8930399999999999</v>
+        <v>0.85805</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0.42318</v>
+        <v>0.75318</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01294</v>
+        <v>0.02004</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3377</v>
+        <v>0.62863</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
@@ -3400,423 +3400,423 @@
         <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>0.90232</v>
+        <v>0.83185</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0.44311</v>
+        <v>0.94425</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01387</v>
+        <v>0.02429</v>
       </c>
       <c r="F119" t="n">
-        <v>0.35541</v>
+        <v>0.77968</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120" t="n">
-        <v>0.90702</v>
+        <v>0.83009</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.44361</v>
+        <v>0.95246</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01408</v>
+        <v>0.02389</v>
       </c>
       <c r="F120" t="n">
-        <v>0.35406</v>
+        <v>0.7846</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B121" t="n">
-        <v>0.91689</v>
+        <v>0.8159</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>0.52239</v>
+        <v>1.21631</v>
       </c>
       <c r="E121" t="n">
-        <v>0.01555</v>
+        <v>0.02866</v>
       </c>
       <c r="F121" t="n">
-        <v>0.41639</v>
+        <v>1.02499</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B122" t="n">
-        <v>0.91813</v>
+        <v>0.80672</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0.52921</v>
+        <v>2.19846</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01592</v>
+        <v>0.05003</v>
       </c>
       <c r="F122" t="n">
-        <v>0.41828</v>
+        <v>1.8372</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B123" t="n">
-        <v>0.92491</v>
+        <v>0.78008</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>0.55966</v>
+        <v>2.54735</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01663</v>
+        <v>0.05691</v>
       </c>
       <c r="F123" t="n">
-        <v>0.44773</v>
+        <v>2.1068</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>0.92467</v>
+        <v>0.79591</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5629999999999999</v>
+        <v>2.74296</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01682</v>
+        <v>0.06165</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4444</v>
+        <v>2.34627</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B125" t="n">
-        <v>0.93035</v>
+        <v>0.76878</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5972</v>
+        <v>3.26811</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0175</v>
+        <v>0.06954</v>
       </c>
       <c r="F125" t="n">
-        <v>0.46857</v>
+        <v>2.79471</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B126" t="n">
-        <v>0.94111</v>
+        <v>0.77999</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>0.69619</v>
+        <v>3.36394</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01907</v>
+        <v>0.06884999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.54856</v>
+        <v>2.81443</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B127" t="n">
-        <v>0.94097</v>
+        <v>0.75697</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0.71577</v>
+        <v>4.459</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0194</v>
+        <v>0.08643000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>0.55626</v>
+        <v>3.79585</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B128" t="n">
-        <v>0.94156</v>
+        <v>0.9628100000000001</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>0.75068</v>
+        <v>0.20182</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02018</v>
+        <v>0.0078</v>
       </c>
       <c r="F128" t="n">
-        <v>0.57862</v>
+        <v>0.14774</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9457100000000001</v>
+        <v>0.95934</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>0.83166</v>
+        <v>0.18841</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02091</v>
+        <v>0.00758</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6400400000000001</v>
+        <v>0.13782</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>0.81454</v>
+        <v>0.94834</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0.39837</v>
+        <v>0.25216</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01226</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>0.32415</v>
+        <v>0.19044</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>0.82848</v>
+        <v>0.94609</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>0.41199</v>
+        <v>0.25865</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01287</v>
+        <v>0.00929</v>
       </c>
       <c r="F131" t="n">
-        <v>0.33503</v>
+        <v>0.19637</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>0.83748</v>
+        <v>0.93631</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0.43268</v>
+        <v>0.3355</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01345</v>
+        <v>0.01159</v>
       </c>
       <c r="F132" t="n">
-        <v>0.35498</v>
+        <v>0.26431</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>0.86269</v>
+        <v>0.92969</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0.49806</v>
+        <v>0.36196</v>
       </c>
       <c r="E133" t="n">
-        <v>0.01528</v>
+        <v>0.01187</v>
       </c>
       <c r="F133" t="n">
-        <v>0.40852</v>
+        <v>0.28404</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>0.85956</v>
+        <v>0.90028</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5147699999999999</v>
+        <v>0.44687</v>
       </c>
       <c r="E134" t="n">
-        <v>0.01553</v>
+        <v>0.01415</v>
       </c>
       <c r="F134" t="n">
-        <v>0.42419</v>
+        <v>0.36223</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B135" t="n">
-        <v>0.87371</v>
+        <v>0.90702</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>0.53881</v>
+        <v>0.44361</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01618</v>
+        <v>0.01408</v>
       </c>
       <c r="F135" t="n">
-        <v>0.4421</v>
+        <v>0.35406</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
@@ -3847,401 +3847,401 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B137" t="n">
-        <v>0.89091</v>
+        <v>0.88404</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0.63963</v>
+        <v>0.62744</v>
       </c>
       <c r="E137" t="n">
-        <v>0.01775</v>
+        <v>0.01819</v>
       </c>
       <c r="F137" t="n">
-        <v>0.50961</v>
+        <v>0.51509</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8982</v>
+        <v>0.8539</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>0.70526</v>
+        <v>0.81632</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01967</v>
+        <v>0.02173</v>
       </c>
       <c r="F138" t="n">
-        <v>0.57656</v>
+        <v>0.67828</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B139" t="n">
-        <v>0.90163</v>
+        <v>0.85034</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0.72751</v>
+        <v>0.73538</v>
       </c>
       <c r="E139" t="n">
-        <v>0.02028</v>
+        <v>0.02052</v>
       </c>
       <c r="F139" t="n">
-        <v>0.58597</v>
+        <v>0.60598</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B140" t="n">
-        <v>0.91488</v>
+        <v>0.84297</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7698199999999999</v>
+        <v>0.97453</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02065</v>
+        <v>0.02492</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.8134400000000001</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B141" t="n">
-        <v>0.91548</v>
+        <v>0.84837</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0.85276</v>
+        <v>0.96362</v>
       </c>
       <c r="E141" t="n">
-        <v>0.022</v>
+        <v>0.02492</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6836100000000001</v>
+        <v>0.81186</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B142" t="n">
-        <v>0.91704</v>
+        <v>0.82226</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0.85989</v>
+        <v>1.26358</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0226</v>
+        <v>0.03055</v>
       </c>
       <c r="F142" t="n">
-        <v>0.68716</v>
+        <v>1.0637</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B143" t="n">
-        <v>0.93377</v>
+        <v>0.82538</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>0.93218</v>
+        <v>2.18969</v>
       </c>
       <c r="E143" t="n">
-        <v>0.02353</v>
+        <v>0.05253</v>
       </c>
       <c r="F143" t="n">
-        <v>0.74391</v>
+        <v>1.83839</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B144" t="n">
-        <v>0.93404</v>
+        <v>0.79713</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>0.91932</v>
+        <v>2.96761</v>
       </c>
       <c r="E144" t="n">
-        <v>0.02369</v>
+        <v>0.0655</v>
       </c>
       <c r="F144" t="n">
-        <v>0.73105</v>
+        <v>2.52939</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B145" t="n">
-        <v>0.92413</v>
+        <v>0.81704</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>1.02066</v>
+        <v>2.77435</v>
       </c>
       <c r="E145" t="n">
-        <v>0.02535</v>
+        <v>0.0614</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8123899999999999</v>
+        <v>2.36214</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B146" t="n">
-        <v>0.80349</v>
+        <v>0.7818000000000001</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>0.37868</v>
+        <v>3.6319</v>
       </c>
       <c r="E146" t="n">
-        <v>0.01224</v>
+        <v>0.07536</v>
       </c>
       <c r="F146" t="n">
-        <v>0.31375</v>
+        <v>3.11965</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B147" t="n">
-        <v>0.83266</v>
+        <v>0.79289</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4087</v>
+        <v>3.63008</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01296</v>
+        <v>0.07444000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>0.33899</v>
+        <v>3.11313</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B148" t="n">
-        <v>0.85765</v>
+        <v>0.77982</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0.45073</v>
+        <v>4.57628</v>
       </c>
       <c r="E148" t="n">
-        <v>0.01379</v>
+        <v>0.09189</v>
       </c>
       <c r="F148" t="n">
-        <v>0.36482</v>
+        <v>3.91718</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B149" t="n">
-        <v>0.85773</v>
+        <v>0.97182</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0.49623</v>
+        <v>0.22318</v>
       </c>
       <c r="E149" t="n">
-        <v>0.01499</v>
+        <v>0.00864</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4039</v>
+        <v>0.16208</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B150" t="n">
-        <v>0.86385</v>
+        <v>0.9700800000000001</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0.52298</v>
+        <v>0.20966</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01558</v>
+        <v>0.008019999999999999</v>
       </c>
       <c r="F150" t="n">
-        <v>0.43182</v>
+        <v>0.15107</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B151" t="n">
-        <v>0.87283</v>
+        <v>0.9529</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.55993</v>
+        <v>0.26075</v>
       </c>
       <c r="E151" t="n">
-        <v>0.01669</v>
+        <v>0.00944</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4621</v>
+        <v>0.19435</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B152" t="n">
-        <v>0.88404</v>
+        <v>0.9543199999999999</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0.62744</v>
+        <v>0.29071</v>
       </c>
       <c r="E152" t="n">
-        <v>0.01819</v>
+        <v>0.01001</v>
       </c>
       <c r="F152" t="n">
-        <v>0.51509</v>
+        <v>0.21995</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
@@ -4250,144 +4250,144 @@
         <v>17</v>
       </c>
       <c r="B153" t="n">
-        <v>0.89861</v>
+        <v>0.9297800000000001</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0.66362</v>
+        <v>0.35467</v>
       </c>
       <c r="E153" t="n">
-        <v>0.01852</v>
+        <v>0.01199</v>
       </c>
       <c r="F153" t="n">
-        <v>0.53706</v>
+        <v>0.27475</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B154" t="n">
-        <v>0.90377</v>
+        <v>0.92902</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>0.67157</v>
+        <v>0.38026</v>
       </c>
       <c r="E154" t="n">
-        <v>0.01948</v>
+        <v>0.01257</v>
       </c>
       <c r="F154" t="n">
-        <v>0.55103</v>
+        <v>0.30244</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B155" t="n">
-        <v>0.90091</v>
+        <v>0.91394</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>0.70417</v>
+        <v>0.46277</v>
       </c>
       <c r="E155" t="n">
-        <v>0.01993</v>
+        <v>0.01478</v>
       </c>
       <c r="F155" t="n">
-        <v>0.57204</v>
+        <v>0.36643</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B156" t="n">
-        <v>0.90903</v>
+        <v>0.91689</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>0.77025</v>
+        <v>0.52239</v>
       </c>
       <c r="E156" t="n">
-        <v>0.02103</v>
+        <v>0.01555</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6238899999999999</v>
+        <v>0.41639</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B157" t="n">
-        <v>0.91784</v>
+        <v>0.89091</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>0.83584</v>
+        <v>0.63963</v>
       </c>
       <c r="E157" t="n">
-        <v>0.02221</v>
+        <v>0.01775</v>
       </c>
       <c r="F157" t="n">
-        <v>0.67963</v>
+        <v>0.50961</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B158" t="n">
-        <v>0.92271</v>
+        <v>0.89861</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0.82294</v>
+        <v>0.66362</v>
       </c>
       <c r="E158" t="n">
-        <v>0.02205</v>
+        <v>0.01852</v>
       </c>
       <c r="F158" t="n">
-        <v>0.66156</v>
+        <v>0.53706</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -4397,251 +4397,251 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B159" t="n">
-        <v>0.93338</v>
+        <v>0.86646</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>0.85256</v>
+        <v>0.79025</v>
       </c>
       <c r="E159" t="n">
-        <v>0.02274</v>
+        <v>0.02192</v>
       </c>
       <c r="F159" t="n">
-        <v>0.68552</v>
+        <v>0.65244</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B160" t="n">
-        <v>0.93407</v>
+        <v>0.86855</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>0.91124</v>
+        <v>0.81828</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0236</v>
+        <v>0.0224</v>
       </c>
       <c r="F160" t="n">
-        <v>0.72077</v>
+        <v>0.67395</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B161" t="n">
-        <v>0.9331</v>
+        <v>0.84605</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>1.00001</v>
+        <v>1.15335</v>
       </c>
       <c r="E161" t="n">
-        <v>0.02513</v>
+        <v>0.02813</v>
       </c>
       <c r="F161" t="n">
-        <v>0.79071</v>
+        <v>0.96109</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B162" t="n">
-        <v>0.79143</v>
+        <v>0.85236</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>0.55162</v>
+        <v>1.12798</v>
       </c>
       <c r="E162" t="n">
-        <v>0.01532</v>
+        <v>0.02778</v>
       </c>
       <c r="F162" t="n">
-        <v>0.46392</v>
+        <v>0.94982</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B163" t="n">
-        <v>0.79728</v>
+        <v>0.83107</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0.57583</v>
+        <v>1.33195</v>
       </c>
       <c r="E163" t="n">
-        <v>0.01594</v>
+        <v>0.03149</v>
       </c>
       <c r="F163" t="n">
-        <v>0.47793</v>
+        <v>1.11093</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B164" t="n">
-        <v>0.82313</v>
+        <v>0.83021</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>0.58783</v>
+        <v>2.50191</v>
       </c>
       <c r="E164" t="n">
-        <v>0.01681</v>
+        <v>0.05593</v>
       </c>
       <c r="F164" t="n">
-        <v>0.48775</v>
+        <v>2.07841</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B165" t="n">
-        <v>0.82401</v>
+        <v>0.81385</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>0.67549</v>
+        <v>2.95591</v>
       </c>
       <c r="E165" t="n">
-        <v>0.01859</v>
+        <v>0.06466</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5632200000000001</v>
+        <v>2.486</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B166" t="n">
-        <v>0.84163</v>
+        <v>0.80359</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>0.70151</v>
+        <v>2.85731</v>
       </c>
       <c r="E166" t="n">
-        <v>0.01942</v>
+        <v>0.06363000000000001</v>
       </c>
       <c r="F166" t="n">
-        <v>0.58013</v>
+        <v>2.41274</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B167" t="n">
-        <v>0.84651</v>
+        <v>0.80458</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>0.741</v>
+        <v>3.85812</v>
       </c>
       <c r="E167" t="n">
-        <v>0.02085</v>
+        <v>0.08089</v>
       </c>
       <c r="F167" t="n">
-        <v>0.61652</v>
+        <v>3.32792</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B168" t="n">
-        <v>0.8539</v>
+        <v>0.7813099999999999</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>0.81632</v>
+        <v>3.59129</v>
       </c>
       <c r="E168" t="n">
-        <v>0.02173</v>
+        <v>0.07378</v>
       </c>
       <c r="F168" t="n">
-        <v>0.67828</v>
+        <v>3.07472</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
@@ -4650,23 +4650,23 @@
         <v>17</v>
       </c>
       <c r="B169" t="n">
-        <v>0.86646</v>
+        <v>0.77724</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>0.79025</v>
+        <v>4.59802</v>
       </c>
       <c r="E169" t="n">
-        <v>0.02192</v>
+        <v>0.0883</v>
       </c>
       <c r="F169" t="n">
-        <v>0.65244</v>
+        <v>3.90149</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
@@ -4675,294 +4675,294 @@
         <v>18</v>
       </c>
       <c r="B170" t="n">
-        <v>0.88918</v>
+        <v>0.96587</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>0.87818</v>
+        <v>0.22992</v>
       </c>
       <c r="E170" t="n">
-        <v>0.02329</v>
+        <v>0.00839</v>
       </c>
       <c r="F170" t="n">
-        <v>0.72485</v>
+        <v>0.16572</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B171" t="n">
-        <v>0.89134</v>
+        <v>0.97074</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>0.98617</v>
+        <v>0.22504</v>
       </c>
       <c r="E171" t="n">
-        <v>0.02489</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="F171" t="n">
-        <v>0.80642</v>
+        <v>0.16089</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8946</v>
+        <v>0.96018</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>0.94364</v>
+        <v>0.292</v>
       </c>
       <c r="E172" t="n">
-        <v>0.02482</v>
+        <v>0.0103</v>
       </c>
       <c r="F172" t="n">
-        <v>0.78165</v>
+        <v>0.21914</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B173" t="n">
-        <v>0.89995</v>
+        <v>0.95467</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>1.06827</v>
+        <v>0.29336</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0263</v>
+        <v>0.0104</v>
       </c>
       <c r="F173" t="n">
-        <v>0.88088</v>
+        <v>0.22186</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B174" t="n">
-        <v>0.9141</v>
+        <v>0.93667</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>1.12961</v>
+        <v>0.37944</v>
       </c>
       <c r="E174" t="n">
-        <v>0.02766</v>
+        <v>0.01254</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9235</v>
+        <v>0.29356</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B175" t="n">
-        <v>0.91193</v>
+        <v>0.93218</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>1.22075</v>
+        <v>0.39868</v>
       </c>
       <c r="E175" t="n">
-        <v>0.02942</v>
+        <v>0.01307</v>
       </c>
       <c r="F175" t="n">
-        <v>1.0009</v>
+        <v>0.30888</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B176" t="n">
-        <v>0.92034</v>
+        <v>0.91855</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>1.2298</v>
+        <v>0.51102</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0293</v>
+        <v>0.01571</v>
       </c>
       <c r="F176" t="n">
-        <v>1.00398</v>
+        <v>0.41185</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B177" t="n">
-        <v>0.90957</v>
+        <v>0.91813</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1.22568</v>
+        <v>0.52921</v>
       </c>
       <c r="E177" t="n">
-        <v>0.02884</v>
+        <v>0.01592</v>
       </c>
       <c r="F177" t="n">
-        <v>0.98681</v>
+        <v>0.41828</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B178" t="n">
-        <v>0.79975</v>
+        <v>0.8982</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>0.53187</v>
+        <v>0.70526</v>
       </c>
       <c r="E178" t="n">
-        <v>0.01494</v>
+        <v>0.01967</v>
       </c>
       <c r="F178" t="n">
-        <v>0.44828</v>
+        <v>0.57656</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7946</v>
+        <v>0.90377</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>0.54506</v>
+        <v>0.67157</v>
       </c>
       <c r="E179" t="n">
-        <v>0.01545</v>
+        <v>0.01948</v>
       </c>
       <c r="F179" t="n">
-        <v>0.44972</v>
+        <v>0.55103</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B180" t="n">
-        <v>0.81494</v>
+        <v>0.88918</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>0.60684</v>
+        <v>0.87818</v>
       </c>
       <c r="E180" t="n">
-        <v>0.01663</v>
+        <v>0.02329</v>
       </c>
       <c r="F180" t="n">
-        <v>0.50163</v>
+        <v>0.72485</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B181" t="n">
-        <v>0.82265</v>
+        <v>0.87832</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>0.68596</v>
+        <v>0.92238</v>
       </c>
       <c r="E181" t="n">
-        <v>0.01878</v>
+        <v>0.0242</v>
       </c>
       <c r="F181" t="n">
-        <v>0.56836</v>
+        <v>0.75898</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -4972,101 +4972,101 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B182" t="n">
-        <v>0.83683</v>
+        <v>0.8611</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>0.63309</v>
+        <v>1.16399</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0177</v>
+        <v>0.02838</v>
       </c>
       <c r="F182" t="n">
-        <v>0.52329</v>
+        <v>0.97136</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B183" t="n">
-        <v>0.85805</v>
+        <v>0.86068</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>0.75318</v>
+        <v>1.248</v>
       </c>
       <c r="E183" t="n">
-        <v>0.02004</v>
+        <v>0.02962</v>
       </c>
       <c r="F183" t="n">
-        <v>0.62863</v>
+        <v>1.03859</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B184" t="n">
-        <v>0.85034</v>
+        <v>0.84434</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>0.73538</v>
+        <v>1.57229</v>
       </c>
       <c r="E184" t="n">
-        <v>0.02052</v>
+        <v>0.03483</v>
       </c>
       <c r="F184" t="n">
-        <v>0.60598</v>
+        <v>1.32489</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B185" t="n">
-        <v>0.86855</v>
+        <v>0.83766</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>0.81828</v>
+        <v>2.34527</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0224</v>
+        <v>0.05595</v>
       </c>
       <c r="F185" t="n">
-        <v>0.67395</v>
+        <v>1.99824</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
@@ -5075,423 +5075,423 @@
         <v>18</v>
       </c>
       <c r="B186" t="n">
-        <v>0.87832</v>
+        <v>0.82001</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>0.92238</v>
+        <v>3.10648</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0242</v>
+        <v>0.06678000000000001</v>
       </c>
       <c r="F186" t="n">
-        <v>0.75898</v>
+        <v>2.6137</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B187" t="n">
-        <v>0.88673</v>
+        <v>0.83058</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>0.91486</v>
+        <v>3.16328</v>
       </c>
       <c r="E187" t="n">
-        <v>0.02402</v>
+        <v>0.06827999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>0.74983</v>
+        <v>2.70497</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8904300000000001</v>
+        <v>0.8021</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>0.97092</v>
+        <v>3.60057</v>
       </c>
       <c r="E188" t="n">
-        <v>0.02512</v>
+        <v>0.07786</v>
       </c>
       <c r="F188" t="n">
-        <v>0.79795</v>
+        <v>3.07768</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B189" t="n">
-        <v>0.90229</v>
+        <v>0.80987</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>1.00708</v>
+        <v>3.82081</v>
       </c>
       <c r="E189" t="n">
-        <v>0.02599</v>
+        <v>0.07815999999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>0.82396</v>
+        <v>3.24</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B190" t="n">
-        <v>0.90188</v>
+        <v>0.79544</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>1.06941</v>
+        <v>5.08111</v>
       </c>
       <c r="E190" t="n">
-        <v>0.02687</v>
+        <v>0.09556000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8747</v>
+        <v>4.35394</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B191" t="n">
-        <v>0.91166</v>
+        <v>0.97785</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1.14658</v>
+        <v>0.24935</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0282</v>
+        <v>0.00885</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.1789</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B192" t="n">
-        <v>0.90138</v>
+        <v>0.97083</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>1.15804</v>
+        <v>0.24366</v>
       </c>
       <c r="E192" t="n">
-        <v>0.02823</v>
+        <v>0.00873</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9319</v>
+        <v>0.17209</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B193" t="n">
-        <v>0.91288</v>
+        <v>0.95438</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>1.25775</v>
+        <v>0.31654</v>
       </c>
       <c r="E193" t="n">
-        <v>0.03051</v>
+        <v>0.01065</v>
       </c>
       <c r="F193" t="n">
-        <v>1.02548</v>
+        <v>0.23541</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B194" t="n">
-        <v>0.75836</v>
+        <v>0.9605900000000001</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>0.66925</v>
+        <v>0.31104</v>
       </c>
       <c r="E194" t="n">
-        <v>0.01835</v>
+        <v>0.0106</v>
       </c>
       <c r="F194" t="n">
-        <v>0.56649</v>
+        <v>0.23369</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B195" t="n">
-        <v>0.78786</v>
+        <v>0.94484</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0.72013</v>
+        <v>0.43773</v>
       </c>
       <c r="E195" t="n">
-        <v>0.01896</v>
+        <v>0.0136</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5990799999999999</v>
+        <v>0.33445</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B196" t="n">
-        <v>0.78444</v>
+        <v>0.94284</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>0.75121</v>
+        <v>0.40454</v>
       </c>
       <c r="E196" t="n">
-        <v>0.02072</v>
+        <v>0.01317</v>
       </c>
       <c r="F196" t="n">
-        <v>0.63687</v>
+        <v>0.3117</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8169</v>
+        <v>0.9192</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>0.86065</v>
+        <v>0.53393</v>
       </c>
       <c r="E197" t="n">
-        <v>0.02217</v>
+        <v>0.01648</v>
       </c>
       <c r="F197" t="n">
-        <v>0.72218</v>
+        <v>0.42415</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B198" t="n">
-        <v>0.82478</v>
+        <v>0.92491</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9335599999999999</v>
+        <v>0.55966</v>
       </c>
       <c r="E198" t="n">
-        <v>0.02351</v>
+        <v>0.01663</v>
       </c>
       <c r="F198" t="n">
-        <v>0.77606</v>
+        <v>0.44773</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B199" t="n">
-        <v>0.83185</v>
+        <v>0.90163</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>0.94425</v>
+        <v>0.72751</v>
       </c>
       <c r="E199" t="n">
-        <v>0.02429</v>
+        <v>0.02028</v>
       </c>
       <c r="F199" t="n">
-        <v>0.77968</v>
+        <v>0.58597</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B200" t="n">
-        <v>0.84297</v>
+        <v>0.90091</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>0.97453</v>
+        <v>0.70417</v>
       </c>
       <c r="E200" t="n">
-        <v>0.02492</v>
+        <v>0.01993</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8134400000000001</v>
+        <v>0.57204</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B201" t="n">
-        <v>0.84605</v>
+        <v>0.89134</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>1.15335</v>
+        <v>0.98617</v>
       </c>
       <c r="E201" t="n">
-        <v>0.02813</v>
+        <v>0.02489</v>
       </c>
       <c r="F201" t="n">
-        <v>0.96109</v>
+        <v>0.80642</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8611</v>
+        <v>0.88673</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>1.16399</v>
+        <v>0.91486</v>
       </c>
       <c r="E202" t="n">
-        <v>0.02838</v>
+        <v>0.02402</v>
       </c>
       <c r="F202" t="n">
-        <v>0.97136</v>
+        <v>0.74983</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
@@ -5522,401 +5522,401 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B204" t="n">
-        <v>0.87781</v>
+        <v>0.86841</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>1.22706</v>
+        <v>1.21283</v>
       </c>
       <c r="E204" t="n">
-        <v>0.02998</v>
+        <v>0.0293</v>
       </c>
       <c r="F204" t="n">
-        <v>1.02506</v>
+        <v>1.00657</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B205" t="n">
-        <v>0.88836</v>
+        <v>0.84706</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>1.29809</v>
+        <v>1.48998</v>
       </c>
       <c r="E205" t="n">
-        <v>0.0309</v>
+        <v>0.03471</v>
       </c>
       <c r="F205" t="n">
-        <v>1.07269</v>
+        <v>1.23381</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B206" t="n">
-        <v>0.88902</v>
+        <v>0.84522</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>1.4368</v>
+        <v>2.38737</v>
       </c>
       <c r="E206" t="n">
-        <v>0.03316</v>
+        <v>0.05694</v>
       </c>
       <c r="F206" t="n">
-        <v>1.18384</v>
+        <v>1.99394</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B207" t="n">
-        <v>0.90605</v>
+        <v>0.83861</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>1.4043</v>
+        <v>3.20127</v>
       </c>
       <c r="E207" t="n">
-        <v>0.03197</v>
+        <v>0.06920999999999999</v>
       </c>
       <c r="F207" t="n">
-        <v>1.1536</v>
+        <v>2.71223</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B208" t="n">
-        <v>0.90378</v>
+        <v>0.82202</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>1.54244</v>
+        <v>3.08445</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0348</v>
+        <v>0.06776</v>
       </c>
       <c r="F208" t="n">
-        <v>1.26781</v>
+        <v>2.57054</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B209" t="n">
-        <v>0.90507</v>
+        <v>0.8244899999999999</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>1.56097</v>
+        <v>4.13019</v>
       </c>
       <c r="E209" t="n">
-        <v>0.03551</v>
+        <v>0.08362</v>
       </c>
       <c r="F209" t="n">
-        <v>1.27144</v>
+        <v>3.50949</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B210" t="n">
-        <v>0.77361</v>
+        <v>0.81103</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>0.68418</v>
+        <v>3.9909</v>
       </c>
       <c r="E210" t="n">
-        <v>0.01822</v>
+        <v>0.0828</v>
       </c>
       <c r="F210" t="n">
-        <v>0.57346</v>
+        <v>3.40347</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B211" t="n">
-        <v>0.7586000000000001</v>
+        <v>0.7962399999999999</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6521400000000001</v>
+        <v>5.00274</v>
       </c>
       <c r="E211" t="n">
-        <v>0.0178</v>
+        <v>0.09532</v>
       </c>
       <c r="F211" t="n">
-        <v>0.5456800000000001</v>
+        <v>4.27868</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B212" t="n">
-        <v>0.77941</v>
+        <v>0.9775199999999999</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>0.78884</v>
+        <v>0.27112</v>
       </c>
       <c r="E212" t="n">
-        <v>0.02082</v>
+        <v>0.00937</v>
       </c>
       <c r="F212" t="n">
-        <v>0.66553</v>
+        <v>0.19226</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B213" t="n">
-        <v>0.81331</v>
+        <v>0.9734699999999999</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>0.87349</v>
+        <v>0.26994</v>
       </c>
       <c r="E213" t="n">
-        <v>0.02237</v>
+        <v>0.00942</v>
       </c>
       <c r="F213" t="n">
-        <v>0.72311</v>
+        <v>0.19171</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8287099999999999</v>
+        <v>0.9597599999999999</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9271</v>
+        <v>0.33887</v>
       </c>
       <c r="E214" t="n">
-        <v>0.02346</v>
+        <v>0.01133</v>
       </c>
       <c r="F214" t="n">
-        <v>0.78342</v>
+        <v>0.25289</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B215" t="n">
-        <v>0.83009</v>
+        <v>0.96556</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>0.95246</v>
+        <v>0.35396</v>
       </c>
       <c r="E215" t="n">
-        <v>0.02389</v>
+        <v>0.01156</v>
       </c>
       <c r="F215" t="n">
-        <v>0.7846</v>
+        <v>0.26328</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B216" t="n">
-        <v>0.84837</v>
+        <v>0.9456</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>0.96362</v>
+        <v>0.45458</v>
       </c>
       <c r="E216" t="n">
-        <v>0.02492</v>
+        <v>0.01424</v>
       </c>
       <c r="F216" t="n">
-        <v>0.81186</v>
+        <v>0.34819</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B217" t="n">
-        <v>0.85236</v>
+        <v>0.9484900000000001</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>1.12798</v>
+        <v>0.45141</v>
       </c>
       <c r="E217" t="n">
-        <v>0.02778</v>
+        <v>0.01427</v>
       </c>
       <c r="F217" t="n">
-        <v>0.94982</v>
+        <v>0.34838</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B218" t="n">
-        <v>0.86068</v>
+        <v>0.93702</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>1.248</v>
+        <v>0.58218</v>
       </c>
       <c r="E218" t="n">
-        <v>0.02962</v>
+        <v>0.01693</v>
       </c>
       <c r="F218" t="n">
-        <v>1.03859</v>
+        <v>0.45784</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B219" t="n">
-        <v>0.86841</v>
+        <v>0.92467</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>1.21283</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0293</v>
+        <v>0.01682</v>
       </c>
       <c r="F219" t="n">
-        <v>1.00657</v>
+        <v>0.4444</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
@@ -5925,144 +5925,144 @@
         <v>20</v>
       </c>
       <c r="B220" t="n">
-        <v>0.87325</v>
+        <v>0.91488</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>1.26509</v>
+        <v>0.7698199999999999</v>
       </c>
       <c r="E220" t="n">
-        <v>0.03037</v>
+        <v>0.02065</v>
       </c>
       <c r="F220" t="n">
-        <v>1.04417</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B221" t="n">
-        <v>0.88698</v>
+        <v>0.90903</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>1.28164</v>
+        <v>0.77025</v>
       </c>
       <c r="E221" t="n">
-        <v>0.03037</v>
+        <v>0.02103</v>
       </c>
       <c r="F221" t="n">
-        <v>1.05713</v>
+        <v>0.6238899999999999</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B222" t="n">
-        <v>0.89051</v>
+        <v>0.8946</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>1.40147</v>
+        <v>0.94364</v>
       </c>
       <c r="E222" t="n">
-        <v>0.03361</v>
+        <v>0.02482</v>
       </c>
       <c r="F222" t="n">
-        <v>1.16539</v>
+        <v>0.78165</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8895999999999999</v>
+        <v>0.8904300000000001</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>1.46979</v>
+        <v>0.97092</v>
       </c>
       <c r="E223" t="n">
-        <v>0.034</v>
+        <v>0.02512</v>
       </c>
       <c r="F223" t="n">
-        <v>1.21552</v>
+        <v>0.79795</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B224" t="n">
-        <v>0.9008699999999999</v>
+        <v>0.87781</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>1.5555</v>
+        <v>1.22706</v>
       </c>
       <c r="E224" t="n">
-        <v>0.03524</v>
+        <v>0.02998</v>
       </c>
       <c r="F224" t="n">
-        <v>1.28742</v>
+        <v>1.02506</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B225" t="n">
-        <v>0.89539</v>
+        <v>0.87325</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>1.4924</v>
+        <v>1.26509</v>
       </c>
       <c r="E225" t="n">
-        <v>0.03512</v>
+        <v>0.03037</v>
       </c>
       <c r="F225" t="n">
-        <v>1.23065</v>
+        <v>1.04417</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -6072,22 +6072,22 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B226" t="n">
-        <v>0.73248</v>
+        <v>0.84994</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>0.87809</v>
+        <v>1.51422</v>
       </c>
       <c r="E226" t="n">
-        <v>0.02135</v>
+        <v>0.03492</v>
       </c>
       <c r="F226" t="n">
-        <v>0.7362</v>
+        <v>1.26241</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -6097,251 +6097,251 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B227" t="n">
-        <v>0.7607699999999999</v>
+        <v>0.8692299999999999</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>0.95672</v>
+        <v>2.86924</v>
       </c>
       <c r="E227" t="n">
-        <v>0.02333</v>
+        <v>0.06444</v>
       </c>
       <c r="F227" t="n">
-        <v>0.81111</v>
+        <v>2.43803</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B228" t="n">
-        <v>0.76946</v>
+        <v>0.8397</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>1.04378</v>
+        <v>3.15186</v>
       </c>
       <c r="E228" t="n">
-        <v>0.02502</v>
+        <v>0.06883</v>
       </c>
       <c r="F228" t="n">
-        <v>0.86433</v>
+        <v>2.66877</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B229" t="n">
-        <v>0.78845</v>
+        <v>0.8377</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>1.054</v>
+        <v>3.57893</v>
       </c>
       <c r="E229" t="n">
-        <v>0.02548</v>
+        <v>0.07455000000000001</v>
       </c>
       <c r="F229" t="n">
-        <v>0.8823</v>
+        <v>3.03334</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B230" t="n">
-        <v>0.79571</v>
+        <v>0.82268</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>1.09831</v>
+        <v>4.30073</v>
       </c>
       <c r="E230" t="n">
-        <v>0.02568</v>
+        <v>0.08812</v>
       </c>
       <c r="F230" t="n">
-        <v>0.89735</v>
+        <v>3.67181</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B231" t="n">
-        <v>0.8159</v>
+        <v>0.82337</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>1.21631</v>
+        <v>2.60069</v>
       </c>
       <c r="E231" t="n">
-        <v>0.02866</v>
+        <v>0.05139</v>
       </c>
       <c r="F231" t="n">
-        <v>1.02499</v>
+        <v>2.18921</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B232" t="n">
-        <v>0.82226</v>
+        <v>0.81162</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>1.26358</v>
+        <v>5.62847</v>
       </c>
       <c r="E232" t="n">
-        <v>0.03055</v>
+        <v>0.10602</v>
       </c>
       <c r="F232" t="n">
-        <v>1.0637</v>
+        <v>4.79658</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B233" t="n">
-        <v>0.83107</v>
+        <v>0.9783500000000001</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>1.33195</v>
+        <v>0.30361</v>
       </c>
       <c r="E233" t="n">
-        <v>0.03149</v>
+        <v>0.01002</v>
       </c>
       <c r="F233" t="n">
-        <v>1.11093</v>
+        <v>0.21598</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B234" t="n">
-        <v>0.84434</v>
+        <v>0.97554</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>1.57229</v>
+        <v>0.29356</v>
       </c>
       <c r="E234" t="n">
-        <v>0.03483</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="F234" t="n">
-        <v>1.32489</v>
+        <v>0.20693</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B235" t="n">
-        <v>0.84706</v>
+        <v>0.96609</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>1.48998</v>
+        <v>0.36646</v>
       </c>
       <c r="E235" t="n">
-        <v>0.03471</v>
+        <v>0.01178</v>
       </c>
       <c r="F235" t="n">
-        <v>1.23381</v>
+        <v>0.26871</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B236" t="n">
-        <v>0.84994</v>
+        <v>0.95686</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>1.51422</v>
+        <v>0.38196</v>
       </c>
       <c r="E236" t="n">
-        <v>0.03492</v>
+        <v>0.01196</v>
       </c>
       <c r="F236" t="n">
-        <v>1.26241</v>
+        <v>0.28192</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
     </row>
@@ -6350,148 +6350,148 @@
         <v>21</v>
       </c>
       <c r="B237" t="n">
-        <v>0.86731</v>
+        <v>0.94969</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>1.78419</v>
+        <v>0.47288</v>
       </c>
       <c r="E237" t="n">
-        <v>0.03889</v>
+        <v>0.0143</v>
       </c>
       <c r="F237" t="n">
-        <v>1.50338</v>
+        <v>0.35909</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B238" t="n">
-        <v>0.86565</v>
+        <v>0.95013</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>1.81396</v>
+        <v>0.47477</v>
       </c>
       <c r="E238" t="n">
-        <v>0.04009</v>
+        <v>0.01433</v>
       </c>
       <c r="F238" t="n">
-        <v>1.52445</v>
+        <v>0.3638</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B239" t="n">
-        <v>0.87566</v>
+        <v>0.9354</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>1.73086</v>
+        <v>0.63817</v>
       </c>
       <c r="E239" t="n">
-        <v>0.03924</v>
+        <v>0.01783</v>
       </c>
       <c r="F239" t="n">
-        <v>1.44834</v>
+        <v>0.49911</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B240" t="n">
-        <v>0.88258</v>
+        <v>0.93035</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>1.95344</v>
+        <v>0.5972</v>
       </c>
       <c r="E240" t="n">
-        <v>0.04263</v>
+        <v>0.0175</v>
       </c>
       <c r="F240" t="n">
-        <v>1.62735</v>
+        <v>0.46857</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B241" t="n">
-        <v>0.894</v>
+        <v>0.91548</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>2.12705</v>
+        <v>0.85276</v>
       </c>
       <c r="E241" t="n">
-        <v>0.04499</v>
+        <v>0.022</v>
       </c>
       <c r="F241" t="n">
-        <v>1.77292</v>
+        <v>0.6836100000000001</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B242" t="n">
-        <v>0.82337</v>
+        <v>0.91784</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>2.60069</v>
+        <v>0.83584</v>
       </c>
       <c r="E242" t="n">
-        <v>0.05139</v>
+        <v>0.02221</v>
       </c>
       <c r="F242" t="n">
-        <v>2.18921</v>
+        <v>0.67963</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
     </row>
@@ -6500,123 +6500,2373 @@
         <v>21</v>
       </c>
       <c r="B243" t="n">
-        <v>0.83694</v>
+        <v>0.89995</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>2.72379</v>
+        <v>1.06827</v>
       </c>
       <c r="E243" t="n">
-        <v>0.05447</v>
+        <v>0.0263</v>
       </c>
       <c r="F243" t="n">
-        <v>2.30638</v>
+        <v>0.88088</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B244" t="n">
-        <v>0.83975</v>
+        <v>0.90229</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>2.758</v>
+        <v>1.00708</v>
       </c>
       <c r="E244" t="n">
-        <v>0.05369</v>
+        <v>0.02599</v>
       </c>
       <c r="F244" t="n">
-        <v>2.32817</v>
+        <v>0.82396</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B245" t="n">
-        <v>0.8383</v>
+        <v>0.88836</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>2.96248</v>
+        <v>1.29809</v>
       </c>
       <c r="E245" t="n">
-        <v>0.05693</v>
+        <v>0.0309</v>
       </c>
       <c r="F245" t="n">
-        <v>2.49642</v>
+        <v>1.07269</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B246" t="n">
-        <v>0.86027</v>
+        <v>0.88698</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>3.076</v>
+        <v>1.28164</v>
       </c>
       <c r="E246" t="n">
-        <v>0.06009</v>
+        <v>0.03037</v>
       </c>
       <c r="F246" t="n">
-        <v>2.62379</v>
+        <v>1.05713</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
+        <v>21</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.86731</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.78419</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.03889</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.50338</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>21</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.86496</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3.02885</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.06899</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2.54084</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>21</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.83841</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.58505</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.07757</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3.02651</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>21</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.84033</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3.27732</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.07017</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2.74372</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>21</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.82751</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4.48764</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.09207</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3.74824</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>21</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.83694</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.72379</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.05447</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2.30638</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>21</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.82034</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>5.53897</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.10799</v>
+      </c>
+      <c r="F253" t="n">
+        <v>4.77368</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>22</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.98256</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.34129</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.01101</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.24054</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>22</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.9795</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.32184</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.01042</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.2233</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>22</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.9659799999999999</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.41287</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.01259</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.30661</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>22</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.9704700000000001</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.40938</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.01259</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.30439</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>22</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.95191</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.46074</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.01446</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.34945</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>22</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.94529</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.48771</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.01512</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.37075</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>22</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.93637</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.6559700000000001</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.01818</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.51347</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>22</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.94111</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.69619</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.01907</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.54856</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>22</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.91704</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.85989</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.68716</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>22</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.92271</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.82294</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.02205</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.66156</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>22</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.9141</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.12961</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.02766</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.9235</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>22</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.90188</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.06941</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.02687</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.8747</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>22</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.88902</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.4368</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.03316</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1.18384</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>22</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.89051</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.40147</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.03361</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1.16539</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>22</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.86565</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.81396</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.04009</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1.52445</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>22</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.8611799999999999</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2.95808</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.06726</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2.47612</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>22</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.8537</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3.70031</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.07858999999999999</v>
+      </c>
+      <c r="F270" t="n">
+        <v>3.11103</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>22</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.86346</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.68064</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.07906000000000001</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3.07597</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>22</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.8392500000000001</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>5.06493</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.09816999999999999</v>
+      </c>
+      <c r="F272" t="n">
+        <v>4.27689</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>22</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.83975</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2.758</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.05369</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2.32817</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>22</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.8279300000000001</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>6.0431</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.11118</v>
+      </c>
+      <c r="F274" t="n">
+        <v>5.13384</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>23</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.97876</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.3559</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.01126</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.24796</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>23</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.9783500000000001</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.34452</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.01064</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.23971</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>23</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.97207</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.41865</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.01279</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.30329</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>23</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.96846</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.41232</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.01272</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.30035</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>23</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.94911</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.58791</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.44225</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>23</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.96351</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.5482</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.01568</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.41153</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>23</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.93633</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.70773</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.01929</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.55507</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>23</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.94097</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.71577</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.55626</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>23</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.93377</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.93218</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.02353</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.74391</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>23</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.93338</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.85256</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.02274</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.68552</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>23</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.91193</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.22075</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.02942</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1.0009</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>23</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.91166</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.14658</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>23</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.90605</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.4043</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.03197</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1.1536</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>23</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.8895999999999999</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.46979</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1.21552</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>23</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.87566</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.73086</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.03924</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1.44834</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>23</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.87248</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2.9624</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.06637999999999999</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2.4655</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>23</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.8662300000000001</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="n">
+        <v>4.11539</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.08715000000000001</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3.49215</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>23</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.86435</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3.6505</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.07926999999999999</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3.07074</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>23</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.83319</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>4.8814</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.09878000000000001</v>
+      </c>
+      <c r="F293" t="n">
+        <v>4.13043</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>23</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.8383</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2.96248</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.05693</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2.49642</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>23</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.83158</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>6.01493</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.11512</v>
+      </c>
+      <c r="F295" t="n">
+        <v>5.13179</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>24</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.98339</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.35175</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.01105</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.24476</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>24</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.98306</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.33839</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.01085</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.2355</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>24</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.97018</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.47559</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.01362</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.34367</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>24</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.97065</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.44399</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.01341</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.32087</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>24</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.95613</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6147899999999999</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.01708</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.46489</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>24</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.9636400000000001</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.55792</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.01593</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.41895</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>24</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.94419</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.74899</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.01985</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>24</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.94156</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.75068</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.02018</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.57862</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>24</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.93404</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.91932</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.02369</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.73105</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>24</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.93407</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.91124</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.72077</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>24</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.92034</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.2298</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1.00398</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>24</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.90138</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.15804</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.02823</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.9319</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>24</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.90378</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.54244</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1.26781</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>24</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.9008699999999999</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.5555</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.03524</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1.28742</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>24</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.88258</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.95344</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.04263</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1.62735</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>24</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.88805</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3.37098</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.07341</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2.83922</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>24</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.86683</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>4.01189</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.08334</v>
+      </c>
+      <c r="F312" t="n">
+        <v>3.34973</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>24</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.8689</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3.88911</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.08093</v>
+      </c>
+      <c r="F313" t="n">
+        <v>3.24791</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>24</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.85088</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>4.88858</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.09811</v>
+      </c>
+      <c r="F314" t="n">
+        <v>4.10835</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>24</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.86027</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3.076</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.06009</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2.62379</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>24</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.84084</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>6.32077</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.11639</v>
+      </c>
+      <c r="F316" t="n">
+        <v>5.38505</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
         <v>25</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B317" t="n">
+        <v>0.98355</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.37102</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.01126</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.25433</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>25</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.98521</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.37323</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.01138</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.25729</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>25</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.96828</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.49278</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.0141</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.35454</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>25</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.97041</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.45311</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.01354</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.32614</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>25</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.9627599999999999</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.61981</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.46655</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>25</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.9589800000000001</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.65421</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.01738</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.49328</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>25</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.94197</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.83627</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.02121</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.64158</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>25</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.9457100000000001</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.83166</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.02091</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.6400400000000001</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>25</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.92413</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1.02066</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.02535</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.8123899999999999</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>25</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.9331</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1.00001</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.02513</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.79071</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>25</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.90957</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1.22568</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.02884</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.98681</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>25</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.91288</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1.25775</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.03051</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1.02548</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>25</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.90507</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1.56097</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.03551</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1.27144</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>25</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.89539</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1.4924</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.03512</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1.23065</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>25</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2.12705</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.04499</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1.77292</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>25</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.88187</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3.27791</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.07074999999999999</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2.71899</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>25</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.87198</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>4.08591</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.08477</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3.42803</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>25</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.87421</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3.98522</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.08364000000000001</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3.34119</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>25</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.8615699999999999</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>5.20799</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.10294</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4.38817</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>25</v>
+      </c>
+      <c r="B336" t="n">
         <v>0.85663</v>
       </c>
-      <c r="C247" t="n">
-        <v>1</v>
-      </c>
-      <c r="D247" t="n">
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
         <v>3.02173</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E336" t="n">
         <v>0.06053</v>
       </c>
-      <c r="F247" t="n">
+      <c r="F336" t="n">
         <v>2.57429</v>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>(29, 29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>25</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.84283</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>6.3819</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.11841</v>
+      </c>
+      <c r="F337" t="n">
+        <v>5.38438</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
         </is>
       </c>
     </row>
